--- a/Results/SBAV Profit Sample.xlsx
+++ b/Results/SBAV Profit Sample.xlsx
@@ -710,7 +710,7 @@
         <v>14348.0333423986</v>
       </c>
       <c r="R3">
-        <v>477.557848417831</v>
+        <v>477.55784841783</v>
       </c>
       <c r="S3">
         <v>430.441000271958</v>
@@ -896,7 +896,7 @@
         <v>56150.4766380407</v>
       </c>
       <c r="R5">
-        <v>1868.90427217363</v>
+        <v>1868.90427217362</v>
       </c>
       <c r="S5">
         <v>1684.51429914122</v>
@@ -1268,7 +1268,7 @@
         <v>14348.0333423986</v>
       </c>
       <c r="R9">
-        <v>477.557848417831</v>
+        <v>477.55784841783</v>
       </c>
       <c r="S9">
         <v>430.441000271958</v>
@@ -1547,7 +1547,7 @@
         <v>74232.6776323713</v>
       </c>
       <c r="R12">
-        <v>2470.74961191046</v>
+        <v>2470.74961191045</v>
       </c>
       <c r="S12">
         <v>2226.98032897114</v>
@@ -7406,7 +7406,7 @@
         <v>25716.0905290683</v>
       </c>
       <c r="R75">
-        <v>855.930605241189</v>
+        <v>855.930605241188</v>
       </c>
       <c r="S75">
         <v>771.482715872048</v>
@@ -8336,7 +8336,7 @@
         <v>25716.0905290683</v>
       </c>
       <c r="R85">
-        <v>855.930605241189</v>
+        <v>855.930605241188</v>
       </c>
       <c r="S85">
         <v>771.482715872048</v>

--- a/Results/SBAV Profit Sample.xlsx
+++ b/Results/SBAV Profit Sample.xlsx
@@ -608,10 +608,10 @@
         <v>252.6348</v>
       </c>
       <c r="O2">
-        <v>29732.96481875</v>
+        <v>14866.482409375</v>
       </c>
       <c r="P2">
-        <v>2553.18769567564</v>
+        <v>3828.88824047603</v>
       </c>
       <c r="Q2">
         <v>5104.58878527643</v>
@@ -626,10 +626,10 @@
         <v>1531.37663558293</v>
       </c>
       <c r="U2">
-        <v>2706.32535923393</v>
+        <v>3982.02590403433</v>
       </c>
       <c r="V2">
-        <v>-348.143923651002</v>
+        <v>-1623.8444684514</v>
       </c>
       <c r="W2">
         <v>-2746.4073496935</v>
@@ -650,7 +650,7 @@
         <v>-9239.60997</v>
       </c>
       <c r="AC2">
-        <v>-9587.753893651</v>
+        <v>-10863.4544384514</v>
       </c>
     </row>
     <row r="3">
@@ -701,16 +701,16 @@
         <v>941.1138</v>
       </c>
       <c r="O3">
-        <v>83573.73895</v>
+        <v>41786.869475</v>
       </c>
       <c r="P3">
-        <v>7176.52757703423</v>
+        <v>10762.2804597164</v>
       </c>
       <c r="Q3">
         <v>14348.0333423986</v>
       </c>
       <c r="R3">
-        <v>477.55784841783</v>
+        <v>477.557848417831</v>
       </c>
       <c r="S3">
         <v>430.441000271958</v>
@@ -719,10 +719,10 @@
         <v>4304.41000271958</v>
       </c>
       <c r="U3">
-        <v>7606.96857730618</v>
+        <v>11192.7214599884</v>
       </c>
       <c r="V3">
-        <v>1916.3452254134</v>
+        <v>-1669.40765726879</v>
       </c>
       <c r="W3">
         <v>-4824.71953967903</v>
@@ -743,7 +743,7 @@
         <v>-7318.31997</v>
       </c>
       <c r="AC3">
-        <v>-5401.9747445866</v>
+        <v>-8987.72762726879</v>
       </c>
     </row>
     <row r="4">
@@ -794,10 +794,10 @@
         <v>2822.9982</v>
       </c>
       <c r="O4">
-        <v>305204.86589625</v>
+        <v>152602.432948125</v>
       </c>
       <c r="P4">
-        <v>26208.1266707461</v>
+        <v>39303.0203711567</v>
       </c>
       <c r="Q4">
         <v>52397.9140715673</v>
@@ -812,10 +812,10 @@
         <v>15719.3742214702</v>
       </c>
       <c r="U4">
-        <v>27780.0640928932</v>
+        <v>40874.9577933037</v>
       </c>
       <c r="V4">
-        <v>5732.75332857702</v>
+        <v>-7362.14037183355</v>
       </c>
       <c r="W4">
         <v>-18885.0966500971</v>
@@ -836,7 +836,7 @@
         <v>-6202.75497</v>
       </c>
       <c r="AC4">
-        <v>-470.001641422983</v>
+        <v>-13564.8953418335</v>
       </c>
     </row>
     <row r="5">
@@ -887,16 +887,16 @@
         <v>2878.9398</v>
       </c>
       <c r="O5">
-        <v>327062.61300625</v>
+        <v>163531.306503125</v>
       </c>
       <c r="P5">
-        <v>28085.064652432</v>
+        <v>42117.7706452364</v>
       </c>
       <c r="Q5">
         <v>56150.4766380407</v>
       </c>
       <c r="R5">
-        <v>1868.90427217362</v>
+        <v>1868.90427217363</v>
       </c>
       <c r="S5">
         <v>1684.51429914122</v>
@@ -905,10 +905,10 @@
         <v>16845.1429914122</v>
       </c>
       <c r="U5">
-        <v>29769.5789515732</v>
+        <v>43802.2849443776</v>
       </c>
       <c r="V5">
-        <v>11764.653839839</v>
+        <v>-2268.05215296538</v>
       </c>
       <c r="W5">
         <v>-14616.2438466285</v>
@@ -929,7 +929,7 @@
         <v>16709.50503</v>
       </c>
       <c r="AC5">
-        <v>28474.158869839</v>
+        <v>14441.4528770346</v>
       </c>
     </row>
     <row r="6">
@@ -980,10 +980,10 @@
         <v>2023.2366</v>
       </c>
       <c r="O6">
-        <v>237381.56236375</v>
+        <v>118690.781181875</v>
       </c>
       <c r="P6">
-        <v>20384.0985216914</v>
+        <v>30569.015844233</v>
       </c>
       <c r="Q6">
         <v>40753.9331667745</v>
@@ -998,10 +998,10 @@
         <v>12226.1799500324</v>
       </c>
       <c r="U6">
-        <v>21606.7165166947</v>
+        <v>31791.6338392362</v>
       </c>
       <c r="V6">
-        <v>11035.7600333377</v>
+        <v>850.842710796132</v>
       </c>
       <c r="W6">
         <v>-8111.45661674217</v>
@@ -1022,7 +1022,7 @@
         <v>-10624.52997</v>
       </c>
       <c r="AC6">
-        <v>411.230063337674</v>
+        <v>-9773.68725920387</v>
       </c>
     </row>
     <row r="7">
@@ -1166,10 +1166,10 @@
         <v>3535.9632</v>
       </c>
       <c r="O8">
-        <v>524264.4931825</v>
+        <v>262132.24659125</v>
       </c>
       <c r="P8">
-        <v>45018.9095313185</v>
+        <v>67512.6131915288</v>
       </c>
       <c r="Q8">
         <v>90006.316851739</v>
@@ -1184,10 +1184,10 @@
         <v>27001.8950555217</v>
       </c>
       <c r="U8">
-        <v>47719.0990368707</v>
+        <v>70212.8026970809</v>
       </c>
       <c r="V8">
-        <v>-1108.68078134902</v>
+        <v>-23602.3844415592</v>
       </c>
       <c r="W8">
         <v>-43395.8985962173</v>
@@ -1208,7 +1208,7 @@
         <v>-13277.59497</v>
       </c>
       <c r="AC8">
-        <v>-14386.275751349</v>
+        <v>-36879.9794115592</v>
       </c>
     </row>
     <row r="9">
@@ -1259,16 +1259,16 @@
         <v>867.1938</v>
       </c>
       <c r="O9">
-        <v>83573.73895</v>
+        <v>41786.869475</v>
       </c>
       <c r="P9">
-        <v>7176.52757703423</v>
+        <v>10762.2804597164</v>
       </c>
       <c r="Q9">
         <v>14348.0333423986</v>
       </c>
       <c r="R9">
-        <v>477.55784841783</v>
+        <v>477.557848417831</v>
       </c>
       <c r="S9">
         <v>430.441000271958</v>
@@ -1277,10 +1277,10 @@
         <v>4304.41000271958</v>
       </c>
       <c r="U9">
-        <v>7606.96857730618</v>
+        <v>11192.7214599884</v>
       </c>
       <c r="V9">
-        <v>4134.2852254134</v>
+        <v>548.532342731207</v>
       </c>
       <c r="W9">
         <v>-2606.77953967903</v>
@@ -1301,7 +1301,7 @@
         <v>-9740.17497</v>
       </c>
       <c r="AC9">
-        <v>-5605.8897445866</v>
+        <v>-9191.64262726879</v>
       </c>
     </row>
     <row r="10">
@@ -1352,10 +1352,10 @@
         <v>1570.3116</v>
       </c>
       <c r="O10">
-        <v>224684.7827925</v>
+        <v>112342.39139625</v>
       </c>
       <c r="P10">
-        <v>19293.8183705651</v>
+        <v>28933.9770820838</v>
       </c>
       <c r="Q10">
         <v>38574.1357936024</v>
@@ -1370,10 +1370,10 @@
         <v>11572.2407380807</v>
       </c>
       <c r="U10">
-        <v>20451.0424443732</v>
+        <v>30091.2011558918</v>
       </c>
       <c r="V10">
-        <v>-4929.23010629244</v>
+        <v>-14569.3888178111</v>
       </c>
       <c r="W10">
         <v>-23052.3234555217</v>
@@ -1394,7 +1394,7 @@
         <v>1756.44003</v>
       </c>
       <c r="AC10">
-        <v>-3172.79007629244</v>
+        <v>-12812.9487878111</v>
       </c>
     </row>
     <row r="11">
@@ -1445,10 +1445,10 @@
         <v>2409.2574</v>
       </c>
       <c r="O11">
-        <v>230470.6570275</v>
+        <v>115235.32851375</v>
       </c>
       <c r="P11">
-        <v>19790.654895129</v>
+        <v>29679.0580369872</v>
       </c>
       <c r="Q11">
         <v>39567.4611788454</v>
@@ -1463,10 +1463,10 @@
         <v>11870.2383536536</v>
       </c>
       <c r="U11">
-        <v>20977.6787304944</v>
+        <v>30866.0818723526</v>
       </c>
       <c r="V11">
-        <v>15204.1570231593</v>
+        <v>5315.75388130105</v>
       </c>
       <c r="W11">
         <v>-3385.62542519179</v>
@@ -1487,7 +1487,7 @@
         <v>-6050.17497</v>
       </c>
       <c r="AC11">
-        <v>9153.98205315926</v>
+        <v>-734.421088698951</v>
       </c>
     </row>
     <row r="12">
@@ -1538,16 +1538,16 @@
         <v>4332.9066</v>
       </c>
       <c r="O12">
-        <v>432386.953247083</v>
+        <v>216193.476623542</v>
       </c>
       <c r="P12">
-        <v>37129.3295347713</v>
+        <v>55681.0035835713</v>
       </c>
       <c r="Q12">
         <v>74232.6776323713</v>
       </c>
       <c r="R12">
-        <v>2470.74961191045</v>
+        <v>2470.74961191046</v>
       </c>
       <c r="S12">
         <v>2226.98032897114</v>
@@ -1556,10 +1556,10 @@
         <v>22269.8032897114</v>
       </c>
       <c r="U12">
-        <v>39356.3098637424</v>
+        <v>57907.9839125424</v>
       </c>
       <c r="V12">
-        <v>-2906.08497403106</v>
+        <v>-21457.7590228311</v>
       </c>
       <c r="W12">
         <v>-37782.4527426599</v>
@@ -1580,7 +1580,7 @@
         <v>-13277.59497</v>
       </c>
       <c r="AC12">
-        <v>-16183.6799440311</v>
+        <v>-34735.353992831</v>
       </c>
     </row>
     <row r="13">
@@ -1631,10 +1631,10 @@
         <v>627.4356</v>
       </c>
       <c r="O13">
-        <v>67823.3035325</v>
+        <v>33911.65176625</v>
       </c>
       <c r="P13">
-        <v>5824.0281490547</v>
+        <v>8734.00452692371</v>
       </c>
       <c r="Q13">
         <v>11643.9809047927</v>
@@ -1649,10 +1649,10 @@
         <v>3493.19427143782</v>
       </c>
       <c r="U13">
-        <v>6173.34757619848</v>
+        <v>9083.32395406749</v>
       </c>
       <c r="V13">
-        <v>799.262295239336</v>
+        <v>-2110.71408262968</v>
       </c>
       <c r="W13">
         <v>-4671.37103335491</v>
@@ -1673,7 +1673,7 @@
         <v>-6355.33497</v>
       </c>
       <c r="AC13">
-        <v>-5556.07267476066</v>
+        <v>-8466.04905262967</v>
       </c>
     </row>
     <row r="14">
@@ -1724,10 +1724,10 @@
         <v>1619.1978</v>
       </c>
       <c r="O14">
-        <v>178397.7889125</v>
+        <v>89198.89445625</v>
       </c>
       <c r="P14">
-        <v>15319.1261740538</v>
+        <v>22973.3294428562</v>
       </c>
       <c r="Q14">
         <v>30627.5327116586</v>
@@ -1742,10 +1742,10 @@
         <v>9188.25981349757</v>
       </c>
       <c r="U14">
-        <v>16237.9521554036</v>
+        <v>23892.155424206</v>
       </c>
       <c r="V14">
-        <v>8062.82045809399</v>
+        <v>408.617189291614</v>
       </c>
       <c r="W14">
         <v>-6326.760098161</v>
@@ -1766,7 +1766,7 @@
         <v>4714.66503</v>
       </c>
       <c r="AC14">
-        <v>12777.485488094</v>
+        <v>5123.28221929162</v>
       </c>
     </row>
     <row r="15">
@@ -1817,10 +1817,10 @@
         <v>3140.6628</v>
       </c>
       <c r="O15">
-        <v>307294.20937</v>
+        <v>153647.104685</v>
       </c>
       <c r="P15">
-        <v>26387.539860172</v>
+        <v>39572.0773826496</v>
       </c>
       <c r="Q15">
         <v>52756.6149051272</v>
@@ -1835,10 +1835,10 @@
         <v>15826.9844715382</v>
       </c>
       <c r="U15">
-        <v>27970.2383073258</v>
+        <v>41154.7758298034</v>
       </c>
       <c r="V15">
-        <v>514.568964212343</v>
+        <v>-12669.9685582653</v>
       </c>
       <c r="W15">
         <v>-24271.807633589</v>
@@ -1859,7 +1859,7 @@
         <v>17438.94003</v>
       </c>
       <c r="AC15">
-        <v>17953.5089942123</v>
+        <v>4768.97147173474</v>
       </c>
     </row>
     <row r="16">
@@ -1910,10 +1910,10 @@
         <v>2023.2366</v>
       </c>
       <c r="O16">
-        <v>195005.390883333</v>
+        <v>97502.6954416667</v>
       </c>
       <c r="P16">
-        <v>16745.2310130799</v>
+        <v>25111.9877393383</v>
       </c>
       <c r="Q16">
         <v>33478.7444655968</v>
@@ -1928,10 +1928,10 @@
         <v>10043.623339679</v>
       </c>
       <c r="U16">
-        <v>17749.5933470478</v>
+        <v>26116.3500733062</v>
       </c>
       <c r="V16">
-        <v>5046.55159263126</v>
+        <v>-3320.20513362719</v>
       </c>
       <c r="W16">
         <v>-10682.5995259177</v>
@@ -1952,7 +1952,7 @@
         <v>-7971.46497</v>
       </c>
       <c r="AC16">
-        <v>-2924.91337736874</v>
+        <v>-11291.6701036272</v>
       </c>
     </row>
     <row r="17">
@@ -2003,10 +2003,10 @@
         <v>2428.8198</v>
       </c>
       <c r="O17">
-        <v>267596.68336875</v>
+        <v>133798.341684375</v>
       </c>
       <c r="P17">
-        <v>22978.6892610807</v>
+        <v>34459.9941642843</v>
       </c>
       <c r="Q17">
         <v>45941.2990674879</v>
@@ -2021,10 +2021,10 @@
         <v>13782.3897202464</v>
       </c>
       <c r="U17">
-        <v>24356.9282331054</v>
+        <v>35838.2331363089</v>
       </c>
       <c r="V17">
-        <v>4734.38628714098</v>
+        <v>-6746.91861606259</v>
       </c>
       <c r="W17">
         <v>-16849.9845472415</v>
@@ -2045,7 +2045,7 @@
         <v>15210.15003</v>
       </c>
       <c r="AC17">
-        <v>19944.536317141</v>
+        <v>8463.23141393742</v>
       </c>
     </row>
     <row r="18">
@@ -2096,10 +2096,10 @@
         <v>605.5698</v>
       </c>
       <c r="O18">
-        <v>67823.3035325</v>
+        <v>33911.65176625</v>
       </c>
       <c r="P18">
-        <v>5824.0281490547</v>
+        <v>8734.00452692371</v>
       </c>
       <c r="Q18">
         <v>11643.9809047927</v>
@@ -2114,10 +2114,10 @@
         <v>3493.19427143782</v>
       </c>
       <c r="U18">
-        <v>6173.34757619848</v>
+        <v>9083.32395406749</v>
       </c>
       <c r="V18">
-        <v>2054.30149523934</v>
+        <v>-855.674882629677</v>
       </c>
       <c r="W18">
         <v>-3416.33183335491</v>
@@ -2138,7 +2138,7 @@
         <v>4714.66503</v>
       </c>
       <c r="AC18">
-        <v>6768.96652523934</v>
+        <v>3858.99014737033</v>
       </c>
     </row>
     <row r="19">
@@ -2189,10 +2189,10 @@
         <v>3763.9866</v>
       </c>
       <c r="O19">
-        <v>406939.821195</v>
+        <v>203469.9105975</v>
       </c>
       <c r="P19">
-        <v>34944.1688943282</v>
+        <v>52404.0271615423</v>
       </c>
       <c r="Q19">
         <v>69863.8854287563</v>
@@ -2207,10 +2207,10 @@
         <v>20959.1656286269</v>
       </c>
       <c r="U19">
-        <v>37040.0854571909</v>
+        <v>54499.943724405</v>
       </c>
       <c r="V19">
-        <v>13346.611771436</v>
+        <v>-4113.24649577805</v>
       </c>
       <c r="W19">
         <v>-19477.1882001294</v>
@@ -2231,7 +2231,7 @@
         <v>-10393.31997</v>
       </c>
       <c r="AC19">
-        <v>2953.29180143602</v>
+        <v>-14506.5664657781</v>
       </c>
     </row>
     <row r="20">
@@ -2375,10 +2375,10 @@
         <v>2020.5306</v>
       </c>
       <c r="O21">
-        <v>299579.71039</v>
+        <v>149789.855195</v>
       </c>
       <c r="P21">
-        <v>25725.0911607535</v>
+        <v>38578.636109445</v>
       </c>
       <c r="Q21">
         <v>51432.1810581366</v>
@@ -2393,10 +2393,10 @@
         <v>15429.654317441</v>
       </c>
       <c r="U21">
-        <v>27268.0565924976</v>
+        <v>40121.6015411891</v>
       </c>
       <c r="V21">
-        <v>7019.88332494342</v>
+        <v>-5833.66162374813</v>
       </c>
       <c r="W21">
         <v>-17144.2411406956</v>
@@ -2417,7 +2417,7 @@
         <v>-3742.75497</v>
       </c>
       <c r="AC21">
-        <v>3277.12835494342</v>
+        <v>-9576.41659374813</v>
       </c>
     </row>
     <row r="22">
@@ -2468,10 +2468,10 @@
         <v>3925.8384</v>
       </c>
       <c r="O22">
-        <v>561711.95698125</v>
+        <v>280855.978490625</v>
       </c>
       <c r="P22">
-        <v>48234.5459264127</v>
+        <v>72334.9427052094</v>
       </c>
       <c r="Q22">
         <v>96435.3394840061</v>
@@ -2486,10 +2486,10 @@
         <v>28930.6018452018</v>
       </c>
       <c r="U22">
-        <v>51127.6061109329</v>
+        <v>75228.0028897296</v>
       </c>
       <c r="V22">
-        <v>8495.9141342689</v>
+        <v>-15604.4826445278</v>
       </c>
       <c r="W22">
         <v>-36811.8192388043</v>
@@ -2510,7 +2510,7 @@
         <v>13825.23003</v>
       </c>
       <c r="AC22">
-        <v>22321.1441642689</v>
+        <v>-1779.25261452778</v>
       </c>
     </row>
     <row r="23">
@@ -2561,10 +2561,10 @@
         <v>2273.106</v>
       </c>
       <c r="O23">
-        <v>267596.68336875</v>
+        <v>133798.341684375</v>
       </c>
       <c r="P23">
-        <v>22978.6892610807</v>
+        <v>34459.9941642843</v>
       </c>
       <c r="Q23">
         <v>45941.2990674879</v>
@@ -2579,10 +2579,10 @@
         <v>13782.3897202464</v>
       </c>
       <c r="U23">
-        <v>24356.9282331054</v>
+        <v>35838.2331363089</v>
       </c>
       <c r="V23">
-        <v>-4857.33251285902</v>
+        <v>-16338.6374160626</v>
       </c>
       <c r="W23">
         <v>-26441.7033472415</v>
@@ -2603,7 +2603,7 @@
         <v>-12.2699699999976</v>
       </c>
       <c r="AC23">
-        <v>-4869.60248285902</v>
+        <v>-16350.9073860626</v>
       </c>
     </row>
     <row r="24">
@@ -2654,10 +2654,10 @@
         <v>1882.0164</v>
       </c>
       <c r="O24">
-        <v>185308.69424875</v>
+        <v>92654.347124375</v>
       </c>
       <c r="P24">
-        <v>15912.5698006163</v>
+        <v>23863.287250102</v>
       </c>
       <c r="Q24">
         <v>31814.0046995877</v>
@@ -2672,10 +2672,10 @@
         <v>9544.20140987631</v>
       </c>
       <c r="U24">
-        <v>16866.9899416039</v>
+        <v>24817.7073910896</v>
       </c>
       <c r="V24">
-        <v>-2589.2321317276</v>
+        <v>-10539.9495812133</v>
       </c>
       <c r="W24">
         <v>-17536.2468897114</v>
@@ -2696,7 +2696,7 @@
         <v>-8510.17497</v>
       </c>
       <c r="AC24">
-        <v>-11099.4071017276</v>
+        <v>-19050.1245512133</v>
       </c>
     </row>
     <row r="25">
@@ -2747,10 +2747,10 @@
         <v>3925.8384</v>
       </c>
       <c r="O25">
-        <v>561711.95698125</v>
+        <v>280855.978490625</v>
       </c>
       <c r="P25">
-        <v>48234.5459264127</v>
+        <v>72334.9427052094</v>
       </c>
       <c r="Q25">
         <v>96435.3394840061</v>
@@ -2765,10 +2765,10 @@
         <v>28930.6018452018</v>
       </c>
       <c r="U25">
-        <v>51127.6061109329</v>
+        <v>75228.0028897296</v>
       </c>
       <c r="V25">
-        <v>8495.9141342689</v>
+        <v>-15604.4826445278</v>
       </c>
       <c r="W25">
         <v>-36811.8192388043</v>
@@ -2789,7 +2789,7 @@
         <v>-7509.04497</v>
       </c>
       <c r="AC25">
-        <v>986.869164268897</v>
+        <v>-23113.5276145278</v>
       </c>
     </row>
     <row r="26">
@@ -2840,10 +2840,10 @@
         <v>4541.0442</v>
       </c>
       <c r="O26">
-        <v>463271.735621875</v>
+        <v>231635.867810937</v>
       </c>
       <c r="P26">
-        <v>39781.4245015407</v>
+        <v>59658.218125255</v>
       </c>
       <c r="Q26">
         <v>79535.0117489692</v>
@@ -2858,10 +2858,10 @@
         <v>23860.5035246908</v>
       </c>
       <c r="U26">
-        <v>42167.4748540098</v>
+        <v>62044.268477724</v>
       </c>
       <c r="V26">
-        <v>3434.99787068101</v>
+        <v>-16441.7957530333</v>
       </c>
       <c r="W26">
         <v>-33932.5390242785</v>
@@ -2882,7 +2882,7 @@
         <v>14209.02003</v>
       </c>
       <c r="AC26">
-        <v>17644.017900681</v>
+        <v>-2232.77572303327</v>
       </c>
     </row>
     <row r="27">
@@ -2933,10 +2933,10 @@
         <v>313.7442</v>
       </c>
       <c r="O27">
-        <v>33911.65176625</v>
+        <v>16955.825883125</v>
       </c>
       <c r="P27">
-        <v>2912.01407452735</v>
+        <v>4367.00226346186</v>
       </c>
       <c r="Q27">
         <v>5821.99045239636</v>
@@ -2951,10 +2951,10 @@
         <v>1746.59713571891</v>
       </c>
       <c r="U27">
-        <v>3086.67378809924</v>
+        <v>4541.66197703375</v>
       </c>
       <c r="V27">
-        <v>1825.88754761967</v>
+        <v>370.899358685161</v>
       </c>
       <c r="W27">
         <v>-909.429116677453</v>
@@ -2975,7 +2975,7 @@
         <v>-4434.04497</v>
       </c>
       <c r="AC27">
-        <v>-2608.15742238033</v>
+        <v>-4063.14561131484</v>
       </c>
     </row>
     <row r="28">
@@ -3119,10 +3119,10 @@
         <v>1445.268</v>
       </c>
       <c r="O29">
-        <v>139289.564916667</v>
+        <v>69644.7824583333</v>
       </c>
       <c r="P29">
-        <v>11960.879295057</v>
+        <v>17937.1340995274</v>
       </c>
       <c r="Q29">
         <v>23913.3889039977</v>
@@ -3137,10 +3137,10 @@
         <v>7174.01667119931</v>
       </c>
       <c r="U29">
-        <v>12678.280962177</v>
+        <v>18654.5357666473</v>
       </c>
       <c r="V29">
-        <v>1415.50370902233</v>
+        <v>-4560.75109544799</v>
       </c>
       <c r="W29">
         <v>-9819.60423279838</v>
@@ -3161,7 +3161,7 @@
         <v>-6126.46497</v>
       </c>
       <c r="AC29">
-        <v>-4710.96126097767</v>
+        <v>-10687.216065448</v>
       </c>
     </row>
     <row r="30">
@@ -3305,10 +3305,10 @@
         <v>908.325</v>
       </c>
       <c r="O31">
-        <v>101734.95529875</v>
+        <v>50867.477649375</v>
       </c>
       <c r="P31">
-        <v>8736.04222358205</v>
+        <v>13101.0067903856</v>
       </c>
       <c r="Q31">
         <v>17465.9713571891</v>
@@ -3323,10 +3323,10 @@
         <v>5239.79140715672</v>
       </c>
       <c r="U31">
-        <v>9260.02136429772</v>
+        <v>13624.9859311012</v>
       </c>
       <c r="V31">
-        <v>-1735.654957141</v>
+        <v>-6100.61952394451</v>
       </c>
       <c r="W31">
         <v>-9941.60495003236</v>
@@ -3347,7 +3347,7 @@
         <v>15784.66503</v>
       </c>
       <c r="AC31">
-        <v>14049.010072859</v>
+        <v>9684.04550605549</v>
       </c>
     </row>
     <row r="32">
@@ -3398,10 +3398,10 @@
         <v>605.5698</v>
       </c>
       <c r="O32">
-        <v>55715.8259666667</v>
+        <v>27857.9129833333</v>
       </c>
       <c r="P32">
-        <v>4784.35171802282</v>
+        <v>7174.85363981095</v>
       </c>
       <c r="Q32">
         <v>9565.35556159908</v>
@@ -3416,10 +3416,10 @@
         <v>2869.60666847972</v>
       </c>
       <c r="U32">
-        <v>5071.31238487079</v>
+        <v>7461.81430665892</v>
       </c>
       <c r="V32">
-        <v>1156.45408360893</v>
+        <v>-1234.0478381792</v>
       </c>
       <c r="W32">
         <v>-3337.58909311935</v>
@@ -3440,7 +3440,7 @@
         <v>4409.50503</v>
       </c>
       <c r="AC32">
-        <v>5565.95911360893</v>
+        <v>3175.4571918208</v>
       </c>
     </row>
     <row r="33">
@@ -3491,10 +3491,10 @@
         <v>2617.2102</v>
       </c>
       <c r="O33">
-        <v>374474.6379875</v>
+        <v>187237.31899375</v>
       </c>
       <c r="P33">
-        <v>32156.3639509418</v>
+        <v>48223.2951368063</v>
       </c>
       <c r="Q33">
         <v>64290.2263226707</v>
@@ -3509,10 +3509,10 @@
         <v>19287.0678968012</v>
       </c>
       <c r="U33">
-        <v>34085.070740622</v>
+        <v>50152.0019264864</v>
       </c>
       <c r="V33">
-        <v>-4249.85264382074</v>
+        <v>-20316.7838296852</v>
       </c>
       <c r="W33">
         <v>-34455.0082258695</v>
@@ -3533,7 +3533,7 @@
         <v>216.600030000001</v>
       </c>
       <c r="AC33">
-        <v>-4033.25261382074</v>
+        <v>-20100.1837996852</v>
       </c>
     </row>
     <row r="34">
@@ -3584,10 +3584,10 @@
         <v>261.7956</v>
       </c>
       <c r="O34">
-        <v>25607.8507808333</v>
+        <v>12803.9253904167</v>
       </c>
       <c r="P34">
-        <v>2198.96165501433</v>
+        <v>3297.6731152208</v>
       </c>
       <c r="Q34">
         <v>4396.38457542727</v>
@@ -3602,10 +3602,10 @@
         <v>1318.91537262818</v>
       </c>
       <c r="U34">
-        <v>2330.85319227715</v>
+        <v>3429.56465248362</v>
       </c>
       <c r="V34">
-        <v>1034.82778035103</v>
+        <v>-63.883679855438</v>
       </c>
       <c r="W34">
         <v>-1030.70360279909</v>
@@ -3626,7 +3626,7 @@
         <v>-12700.73997</v>
       </c>
       <c r="AC34">
-        <v>-11665.912189649</v>
+        <v>-12764.6236498554</v>
       </c>
     </row>
     <row r="35">
@@ -3677,10 +3677,10 @@
         <v>3763.9866</v>
       </c>
       <c r="O35">
-        <v>406939.821195</v>
+        <v>203469.9105975</v>
       </c>
       <c r="P35">
-        <v>34944.1688943282</v>
+        <v>52404.0271615423</v>
       </c>
       <c r="Q35">
         <v>69863.8854287563</v>
@@ -3695,10 +3695,10 @@
         <v>20959.1656286269</v>
       </c>
       <c r="U35">
-        <v>37040.0854571909</v>
+        <v>54499.943724405</v>
       </c>
       <c r="V35">
-        <v>-6613.92322856399</v>
+        <v>-24073.7814957781</v>
       </c>
       <c r="W35">
         <v>-39437.7232001294</v>
@@ -3719,7 +3719,7 @@
         <v>1253.53503</v>
       </c>
       <c r="AC35">
-        <v>-5360.38819856399</v>
+        <v>-22820.2464657781</v>
       </c>
     </row>
     <row r="36">
@@ -3770,10 +3770,10 @@
         <v>3747.7572</v>
       </c>
       <c r="O36">
-        <v>416261.5074625</v>
+        <v>208130.75373125</v>
       </c>
       <c r="P36">
-        <v>35744.6277394589</v>
+        <v>53604.4353666645</v>
       </c>
       <c r="Q36">
         <v>71464.24299387</v>
@@ -3788,10 +3788,10 @@
         <v>21439.272898161</v>
       </c>
       <c r="U36">
-        <v>37888.555029275</v>
+        <v>55748.3626564806</v>
       </c>
       <c r="V36">
-        <v>-1344.68493111402</v>
+        <v>-19204.4925583196</v>
       </c>
       <c r="W36">
         <v>-34920.372895709</v>
@@ -3812,7 +3812,7 @@
         <v>-9816.46497</v>
       </c>
       <c r="AC36">
-        <v>-11161.149901114</v>
+        <v>-29020.9575283196</v>
       </c>
     </row>
     <row r="37">
@@ -3863,10 +3863,10 @@
         <v>3330.1092</v>
       </c>
       <c r="O37">
-        <v>373028.16942875</v>
+        <v>186514.084714375</v>
       </c>
       <c r="P37">
-        <v>32032.1548198008</v>
+        <v>48037.0248980804</v>
       </c>
       <c r="Q37">
         <v>64041.89497636</v>
@@ -3881,10 +3881,10 @@
         <v>19212.568492908</v>
       </c>
       <c r="U37">
-        <v>33953.4116690916</v>
+        <v>49958.2817473712</v>
       </c>
       <c r="V37">
-        <v>-6365.11397618366</v>
+        <v>-22369.9840544632</v>
       </c>
       <c r="W37">
         <v>-36453.597283452</v>
@@ -3905,7 +3905,7 @@
         <v>-9048.88497</v>
       </c>
       <c r="AC37">
-        <v>-15413.9989461837</v>
+        <v>-31418.8690244632</v>
       </c>
     </row>
     <row r="38">
@@ -3956,10 +3956,10 @@
         <v>4541.0442</v>
       </c>
       <c r="O38">
-        <v>463271.735621875</v>
+        <v>231635.867810937</v>
       </c>
       <c r="P38">
-        <v>39781.4245015407</v>
+        <v>59658.218125255</v>
       </c>
       <c r="Q38">
         <v>79535.0117489692</v>
@@ -3974,10 +3974,10 @@
         <v>23860.5035246908</v>
       </c>
       <c r="U38">
-        <v>42167.4748540098</v>
+        <v>62044.268477724</v>
       </c>
       <c r="V38">
-        <v>3434.99787068101</v>
+        <v>-16441.7957530333</v>
       </c>
       <c r="W38">
         <v>-33932.5390242785</v>
@@ -3998,7 +3998,7 @@
         <v>25472.08503</v>
       </c>
       <c r="AC38">
-        <v>28907.082900681</v>
+        <v>9030.28927696673</v>
       </c>
     </row>
     <row r="39">
@@ -4049,10 +4049,10 @@
         <v>3450.3216</v>
       </c>
       <c r="O39">
-        <v>339732.606122708</v>
+        <v>169866.303061354</v>
       </c>
       <c r="P39">
-        <v>29173.0446344632</v>
+        <v>43749.3599585203</v>
       </c>
       <c r="Q39">
         <v>58325.6752825774</v>
@@ -4067,10 +4067,10 @@
         <v>17497.7025847732</v>
       </c>
       <c r="U39">
-        <v>30922.8148929405</v>
+        <v>45499.1302169976</v>
       </c>
       <c r="V39">
-        <v>10936.2492918327</v>
+        <v>-3640.06603222439</v>
       </c>
       <c r="W39">
         <v>-16466.6110978042</v>
@@ -4091,7 +4091,7 @@
         <v>22666.44003</v>
       </c>
       <c r="AC39">
-        <v>33602.6893218327</v>
+        <v>19026.3739977756</v>
       </c>
     </row>
     <row r="40">
@@ -4142,10 +4142,10 @@
         <v>3778.1832</v>
       </c>
       <c r="O40">
-        <v>358509.910931667</v>
+        <v>179254.955465833</v>
       </c>
       <c r="P40">
-        <v>30785.4631702007</v>
+        <v>46167.4236130912</v>
       </c>
       <c r="Q40">
         <v>61549.3840559817</v>
@@ -4160,10 +4160,10 @@
         <v>18464.8152167945</v>
       </c>
       <c r="U40">
-        <v>32631.9446918801</v>
+        <v>48013.9051347707</v>
       </c>
       <c r="V40">
-        <v>15371.3937249144</v>
+        <v>-10.5667179761513</v>
       </c>
       <c r="W40">
         <v>-13546.0456391872</v>
@@ -4184,7 +4184,7 @@
         <v>-5780.81997</v>
       </c>
       <c r="AC40">
-        <v>9590.57375491439</v>
+        <v>-5791.38668797615</v>
       </c>
     </row>
     <row r="41">
@@ -4235,10 +4235,10 @@
         <v>3404.4384</v>
       </c>
       <c r="O41">
-        <v>306437.042816667</v>
+        <v>153218.521408333</v>
       </c>
       <c r="P41">
-        <v>26313.9344491255</v>
+        <v>39461.6950189602</v>
       </c>
       <c r="Q41">
         <v>52609.4555887949</v>
@@ -4253,10 +4253,10 @@
         <v>15782.8366766385</v>
       </c>
       <c r="U41">
-        <v>27892.2181167893</v>
+        <v>41039.9786866241</v>
       </c>
       <c r="V41">
-        <v>22244.4969598491</v>
+        <v>9096.73639001441</v>
       </c>
       <c r="W41">
         <v>-2472.74051215644</v>
@@ -4277,7 +4277,7 @@
         <v>-10970.17497</v>
       </c>
       <c r="AC41">
-        <v>11274.3219898491</v>
+        <v>-1873.43857998559</v>
       </c>
     </row>
     <row r="42">
@@ -4328,10 +4328,10 @@
         <v>523.5714</v>
       </c>
       <c r="O42">
-        <v>74894.9275975</v>
+        <v>37447.46379875</v>
       </c>
       <c r="P42">
-        <v>6431.27279018837</v>
+        <v>9644.65902736125</v>
       </c>
       <c r="Q42">
         <v>12858.0452645341</v>
@@ -4346,10 +4346,10 @@
         <v>3857.41357936024</v>
       </c>
       <c r="U42">
-        <v>6817.01414812439</v>
+        <v>10030.4003852973</v>
       </c>
       <c r="V42">
-        <v>1530.42083123585</v>
+        <v>-1682.96540593703</v>
       </c>
       <c r="W42">
         <v>-4510.6102851739</v>
@@ -4370,7 +4370,7 @@
         <v>18437.73003</v>
       </c>
       <c r="AC42">
-        <v>19968.1508612359</v>
+        <v>16754.764624063</v>
       </c>
     </row>
     <row r="43">
@@ -4421,10 +4421,10 @@
         <v>2968.5678</v>
       </c>
       <c r="O43">
-        <v>281686.358589167</v>
+        <v>140843.179294583</v>
       </c>
       <c r="P43">
-        <v>24188.5782051577</v>
+        <v>36274.4042674288</v>
       </c>
       <c r="Q43">
         <v>48360.2303297</v>
@@ -4439,10 +4439,10 @@
         <v>14508.06909891</v>
       </c>
       <c r="U43">
-        <v>25639.3851150487</v>
+        <v>37725.2111773198</v>
       </c>
       <c r="V43">
-        <v>5330.74178386131</v>
+        <v>-6755.08427840982</v>
       </c>
       <c r="W43">
         <v>-17390.10343079</v>
@@ -4463,7 +4463,7 @@
         <v>1756.44003</v>
       </c>
       <c r="AC43">
-        <v>7087.18181386132</v>
+        <v>-4998.64424840982</v>
       </c>
     </row>
     <row r="44">
@@ -4514,10 +4514,10 @@
         <v>4015.4532</v>
       </c>
       <c r="O44">
-        <v>561711.95698125</v>
+        <v>280855.978490625</v>
       </c>
       <c r="P44">
-        <v>48234.5459264127</v>
+        <v>72334.9427052094</v>
       </c>
       <c r="Q44">
         <v>96435.3394840061</v>
@@ -4532,10 +4532,10 @@
         <v>28930.6018452018</v>
       </c>
       <c r="U44">
-        <v>51127.6061109329</v>
+        <v>75228.0028897296</v>
       </c>
       <c r="V44">
-        <v>18322.5689342689</v>
+        <v>-5777.82784452778</v>
       </c>
       <c r="W44">
         <v>-26985.1644388043</v>
@@ -4556,7 +4556,7 @@
         <v>-13277.59497</v>
       </c>
       <c r="AC44">
-        <v>5044.97396426889</v>
+        <v>-19055.4228145278</v>
       </c>
     </row>
     <row r="45">
@@ -4607,10 +4607,10 @@
         <v>1570.3116</v>
       </c>
       <c r="O45">
-        <v>153647.104685</v>
+        <v>76823.5523425</v>
       </c>
       <c r="P45">
-        <v>13193.769930086</v>
+        <v>19786.0386913248</v>
       </c>
       <c r="Q45">
         <v>26378.3074525636</v>
@@ -4625,10 +4625,10 @@
         <v>7913.49223576908</v>
       </c>
       <c r="U45">
-        <v>13985.1191536629</v>
+        <v>20577.3879149017</v>
       </c>
       <c r="V45">
-        <v>2636.46468210617</v>
+        <v>-3955.80407913263</v>
       </c>
       <c r="W45">
         <v>-9756.72361679452</v>
@@ -4649,7 +4649,7 @@
         <v>12018.37503</v>
       </c>
       <c r="AC45">
-        <v>14654.8397121062</v>
+        <v>8062.57095086737</v>
       </c>
     </row>
     <row r="46">
@@ -4700,10 +4700,10 @@
         <v>3402.3858</v>
       </c>
       <c r="O46">
-        <v>486817.02938375</v>
+        <v>243408.514691875</v>
       </c>
       <c r="P46">
-        <v>41803.2731362244</v>
+        <v>62690.2836778482</v>
       </c>
       <c r="Q46">
         <v>83577.2942194719</v>
@@ -4718,10 +4718,10 @@
         <v>25073.1882658416</v>
       </c>
       <c r="U46">
-        <v>44310.5919628085</v>
+        <v>65197.6025044323</v>
       </c>
       <c r="V46">
-        <v>12518.197103033</v>
+        <v>-8368.81343859075</v>
       </c>
       <c r="W46">
         <v>-26748.5051536304</v>
@@ -4742,7 +4742,7 @@
         <v>18437.73003</v>
       </c>
       <c r="AC46">
-        <v>30955.927133033</v>
+        <v>10068.9165914093</v>
       </c>
     </row>
     <row r="47">
@@ -4793,10 +4793,10 @@
         <v>1515.3864</v>
       </c>
       <c r="O47">
-        <v>224684.7827925</v>
+        <v>112342.39139625</v>
       </c>
       <c r="P47">
-        <v>19293.8183705651</v>
+        <v>28933.9770820838</v>
       </c>
       <c r="Q47">
         <v>38574.1357936024</v>
@@ -4811,10 +4811,10 @@
         <v>11572.2407380807</v>
       </c>
       <c r="U47">
-        <v>20451.0424443732</v>
+        <v>30091.2011558918</v>
       </c>
       <c r="V47">
-        <v>-475.295306292439</v>
+        <v>-10115.4540178111</v>
       </c>
       <c r="W47">
         <v>-18598.3886555217</v>
@@ -4835,7 +4835,7 @@
         <v>-13277.59497</v>
       </c>
       <c r="AC47">
-        <v>-13752.8902762924</v>
+        <v>-23393.0489878111</v>
       </c>
     </row>
     <row r="48">
@@ -4886,10 +4886,10 @@
         <v>3747.7572</v>
       </c>
       <c r="O48">
-        <v>524264.4931825</v>
+        <v>262132.24659125</v>
       </c>
       <c r="P48">
-        <v>45018.9095313185</v>
+        <v>67512.6131915288</v>
       </c>
       <c r="Q48">
         <v>90006.316851739</v>
@@ -4904,10 +4904,10 @@
         <v>27001.8950555217</v>
       </c>
       <c r="U48">
-        <v>47719.0990368707</v>
+        <v>70212.8026970809</v>
       </c>
       <c r="V48">
-        <v>-2773.39678134902</v>
+        <v>-25267.1004415592</v>
       </c>
       <c r="W48">
         <v>-45060.6145962173</v>
@@ -4928,7 +4928,7 @@
         <v>-6355.33497</v>
       </c>
       <c r="AC48">
-        <v>-9128.73175134901</v>
+        <v>-31622.4354115592</v>
       </c>
     </row>
     <row r="49">
@@ -5165,10 +5165,10 @@
         <v>867.1938</v>
       </c>
       <c r="O51">
-        <v>101734.95529875</v>
+        <v>50867.477649375</v>
       </c>
       <c r="P51">
-        <v>8736.04222358205</v>
+        <v>13101.0067903856</v>
       </c>
       <c r="Q51">
         <v>17465.9713571891</v>
@@ -5183,10 +5183,10 @@
         <v>5239.79140715672</v>
       </c>
       <c r="U51">
-        <v>9260.02136429772</v>
+        <v>13624.9859311012</v>
       </c>
       <c r="V51">
-        <v>-1839.106157141</v>
+        <v>-6204.07072394451</v>
       </c>
       <c r="W51">
         <v>-10045.0561500324</v>
@@ -5207,7 +5207,7 @@
         <v>-2550.89997</v>
       </c>
       <c r="AC51">
-        <v>-4390.00612714099</v>
+        <v>-8754.97069394451</v>
       </c>
     </row>
     <row r="52">
@@ -5258,10 +5258,10 @@
         <v>2785.4574</v>
       </c>
       <c r="O52">
-        <v>250721.21685</v>
+        <v>125360.608425</v>
       </c>
       <c r="P52">
-        <v>21529.5827311027</v>
+        <v>32286.8413791493</v>
       </c>
       <c r="Q52">
         <v>43044.1000271958</v>
@@ -5276,10 +5276,10 @@
         <v>12913.2300081588</v>
       </c>
       <c r="U52">
-        <v>22820.9057319186</v>
+        <v>33578.1643799651</v>
       </c>
       <c r="V52">
-        <v>-791.633323759805</v>
+        <v>-11548.8919718064</v>
       </c>
       <c r="W52">
         <v>-21014.8276190371</v>
@@ -5300,7 +5300,7 @@
         <v>4600.23003</v>
       </c>
       <c r="AC52">
-        <v>3808.5967062402</v>
+        <v>-6948.66194180638</v>
       </c>
     </row>
     <row r="53">
@@ -5351,10 +5351,10 @@
         <v>4077.6516</v>
       </c>
       <c r="O53">
-        <v>362152.868783333</v>
+        <v>181076.434391667</v>
       </c>
       <c r="P53">
-        <v>31098.2861671483</v>
+        <v>46636.5486587712</v>
       </c>
       <c r="Q53">
         <v>62174.811150394</v>
@@ -5369,10 +5369,10 @@
         <v>18652.4433451182</v>
       </c>
       <c r="U53">
-        <v>32963.5305016601</v>
+        <v>48501.792993283</v>
       </c>
       <c r="V53">
-        <v>-4055.17555654194</v>
+        <v>-19593.4380481648</v>
       </c>
       <c r="W53">
         <v>-33266.4562052758</v>
@@ -5393,7 +5393,7 @@
         <v>20552.08503</v>
       </c>
       <c r="AC53">
-        <v>16496.9094734581</v>
+        <v>958.646981835216</v>
       </c>
     </row>
     <row r="54">
@@ -5444,10 +5444,10 @@
         <v>2409.2574</v>
       </c>
       <c r="O54">
-        <v>230470.6570275</v>
+        <v>115235.32851375</v>
       </c>
       <c r="P54">
-        <v>19790.654895129</v>
+        <v>29679.0580369872</v>
       </c>
       <c r="Q54">
         <v>39567.4611788454</v>
@@ -5462,10 +5462,10 @@
         <v>11870.2383536536</v>
       </c>
       <c r="U54">
-        <v>20977.6787304944</v>
+        <v>30866.0818723526</v>
       </c>
       <c r="V54">
-        <v>7903.37702315926</v>
+        <v>-1985.02611869895</v>
       </c>
       <c r="W54">
         <v>-10686.4054251918</v>
@@ -5486,7 +5486,7 @@
         <v>1756.44003</v>
       </c>
       <c r="AC54">
-        <v>9659.81705315926</v>
+        <v>-228.586088698947</v>
       </c>
     </row>
     <row r="55">
@@ -5537,10 +5537,10 @@
         <v>1070.85</v>
       </c>
       <c r="O55">
-        <v>102431.403123333</v>
+        <v>51215.7015616667</v>
       </c>
       <c r="P55">
-        <v>8795.84662005733</v>
+        <v>13190.6924608832</v>
       </c>
       <c r="Q55">
         <v>17585.5383017091</v>
@@ -5555,10 +5555,10 @@
         <v>5275.66149051272</v>
       </c>
       <c r="U55">
-        <v>9323.41276910861</v>
+        <v>13718.2586099345</v>
       </c>
       <c r="V55">
-        <v>-543.151278595886</v>
+        <v>-4937.99711942175</v>
       </c>
       <c r="W55">
         <v>-8805.27681119635</v>
@@ -5579,7 +5579,7 @@
         <v>29009.50503</v>
       </c>
       <c r="AC55">
-        <v>28466.3537514041</v>
+        <v>24071.5079105782</v>
       </c>
     </row>
     <row r="56">
@@ -5630,10 +5630,10 @@
         <v>1856.9892</v>
       </c>
       <c r="O56">
-        <v>185308.69424875</v>
+        <v>92654.347124375</v>
       </c>
       <c r="P56">
-        <v>15912.5698006163</v>
+        <v>23863.287250102</v>
       </c>
       <c r="Q56">
         <v>31814.0046995877</v>
@@ -5648,10 +5648,10 @@
         <v>9544.20140987631</v>
       </c>
       <c r="U56">
-        <v>16866.9899416039</v>
+        <v>24817.7073910896</v>
       </c>
       <c r="V56">
-        <v>2975.0606682724</v>
+        <v>-4975.65678121331</v>
       </c>
       <c r="W56">
         <v>-11971.9540897114</v>
@@ -5672,7 +5672,7 @@
         <v>-13277.59497</v>
       </c>
       <c r="AC56">
-        <v>-10302.5343017276</v>
+        <v>-18253.2517512133</v>
       </c>
     </row>
     <row r="57">
@@ -5723,10 +5723,10 @@
         <v>4332.9066</v>
       </c>
       <c r="O57">
-        <v>474763.1247275</v>
+        <v>237381.56236375</v>
       </c>
       <c r="P57">
-        <v>40768.1970433829</v>
+        <v>61138.031688466</v>
       </c>
       <c r="Q57">
         <v>81507.8663335491</v>
@@ -5741,10 +5741,10 @@
         <v>24452.3599000647</v>
       </c>
       <c r="U57">
-        <v>43213.4330333894</v>
+        <v>63583.2676784724</v>
       </c>
       <c r="V57">
-        <v>21679.3884666754</v>
+        <v>1309.55382159227</v>
       </c>
       <c r="W57">
         <v>-16615.0448334843</v>
@@ -5765,7 +5765,7 @@
         <v>872.085030000002</v>
       </c>
       <c r="AC57">
-        <v>22551.4734966754</v>
+        <v>2181.63885159227</v>
       </c>
     </row>
     <row r="58">
@@ -5816,10 +5816,10 @@
         <v>2724.645</v>
       </c>
       <c r="O58">
-        <v>305204.86589625</v>
+        <v>152602.432948125</v>
       </c>
       <c r="P58">
-        <v>26208.1266707461</v>
+        <v>39303.0203711567</v>
       </c>
       <c r="Q58">
         <v>52397.9140715673</v>
@@ -5834,10 +5834,10 @@
         <v>15719.3742214702</v>
       </c>
       <c r="U58">
-        <v>27780.0640928932</v>
+        <v>40874.9577933037</v>
       </c>
       <c r="V58">
-        <v>11305.205128577</v>
+        <v>-1789.68857183355</v>
       </c>
       <c r="W58">
         <v>-13312.6448500971</v>
@@ -5858,7 +5858,7 @@
         <v>3408.37503</v>
       </c>
       <c r="AC58">
-        <v>14713.580158577</v>
+        <v>1618.68645816645</v>
       </c>
     </row>
     <row r="59">
@@ -5909,10 +5909,10 @@
         <v>809.8002</v>
       </c>
       <c r="O59">
-        <v>112342.39139625</v>
+        <v>56171.195698125</v>
       </c>
       <c r="P59">
-        <v>9646.90918528255</v>
+        <v>14466.9885410419</v>
       </c>
       <c r="Q59">
         <v>19287.0678968012</v>
@@ -5927,10 +5927,10 @@
         <v>5786.12036904036</v>
       </c>
       <c r="U59">
-        <v>10225.5212221866</v>
+        <v>15045.6005779459</v>
       </c>
       <c r="V59">
-        <v>664.794346853781</v>
+        <v>-4155.28500890555</v>
       </c>
       <c r="W59">
         <v>-8396.75232776085</v>
@@ -5951,7 +5951,7 @@
         <v>17438.94003</v>
       </c>
       <c r="AC59">
-        <v>18103.7343768538</v>
+        <v>13283.6550210944</v>
       </c>
     </row>
     <row r="60">
@@ -6002,10 +6002,10 @@
         <v>4332.9066</v>
       </c>
       <c r="O60">
-        <v>474763.1247275</v>
+        <v>237381.56236375</v>
       </c>
       <c r="P60">
-        <v>40768.1970433829</v>
+        <v>61138.031688466</v>
       </c>
       <c r="Q60">
         <v>81507.8663335491</v>
@@ -6020,10 +6020,10 @@
         <v>24452.3599000647</v>
       </c>
       <c r="U60">
-        <v>43213.4330333894</v>
+        <v>63583.2676784724</v>
       </c>
       <c r="V60">
-        <v>-1298.14653332465</v>
+        <v>-21667.9811784077</v>
       </c>
       <c r="W60">
         <v>-39592.5798334843</v>
@@ -6044,7 +6044,7 @@
         <v>-13277.59497</v>
       </c>
       <c r="AC60">
-        <v>-14575.7415033247</v>
+        <v>-34945.5761484077</v>
       </c>
     </row>
     <row r="61">
@@ -6095,10 +6095,10 @@
         <v>2093.7576</v>
       </c>
       <c r="O61">
-        <v>299579.71039</v>
+        <v>149789.855195</v>
       </c>
       <c r="P61">
-        <v>25725.0911607535</v>
+        <v>38578.636109445</v>
       </c>
       <c r="Q61">
         <v>51432.1810581366</v>
@@ -6113,10 +6113,10 @@
         <v>15429.654317441</v>
       </c>
       <c r="U61">
-        <v>27268.0565924976</v>
+        <v>40121.6015411891</v>
       </c>
       <c r="V61">
-        <v>7703.33532494341</v>
+        <v>-5150.20962374814</v>
       </c>
       <c r="W61">
         <v>-16460.7891406956</v>
@@ -6137,7 +6137,7 @@
         <v>216.600030000001</v>
       </c>
       <c r="AC61">
-        <v>7919.93535494341</v>
+        <v>-4933.60959374814</v>
       </c>
     </row>
     <row r="62">
@@ -6188,10 +6188,10 @@
         <v>3140.6628</v>
       </c>
       <c r="O62">
-        <v>449369.565585</v>
+        <v>224684.7827925</v>
       </c>
       <c r="P62">
-        <v>38587.6367411302</v>
+        <v>57867.9541641675</v>
       </c>
       <c r="Q62">
         <v>77148.2715872049</v>
@@ -6206,10 +6206,10 @@
         <v>23144.4814761615</v>
       </c>
       <c r="U62">
-        <v>40902.0848887463</v>
+        <v>60182.4023117837</v>
       </c>
       <c r="V62">
-        <v>13934.5393874151</v>
+        <v>-5345.77803562221</v>
       </c>
       <c r="W62">
         <v>-22311.6473110434</v>
@@ -6230,7 +6230,7 @@
         <v>-9663.88497</v>
       </c>
       <c r="AC62">
-        <v>4270.65441741512</v>
+        <v>-15009.6630056222</v>
       </c>
     </row>
     <row r="63">
@@ -6281,10 +6281,10 @@
         <v>3480.0546</v>
       </c>
       <c r="O63">
-        <v>332902.060150833</v>
+        <v>166451.030075417</v>
       </c>
       <c r="P63">
-        <v>28586.5015151863</v>
+        <v>42869.7504978704</v>
       </c>
       <c r="Q63">
         <v>57152.9994805545</v>
@@ -6299,10 +6299,10 @@
         <v>17145.8998441663</v>
       </c>
       <c r="U63">
-        <v>30301.091499603</v>
+        <v>44584.340482287</v>
       </c>
       <c r="V63">
-        <v>-1765.92205543663</v>
+        <v>-16049.1710381207</v>
       </c>
       <c r="W63">
         <v>-28617.8300363881</v>
@@ -6323,7 +6323,7 @@
         <v>-9663.88497</v>
       </c>
       <c r="AC63">
-        <v>-11429.8070254366</v>
+        <v>-25713.0560081207</v>
       </c>
     </row>
     <row r="64">
@@ -6374,10 +6374,10 @@
         <v>809.8002</v>
       </c>
       <c r="O64">
-        <v>112342.39139625</v>
+        <v>56171.195698125</v>
       </c>
       <c r="P64">
-        <v>9646.90918528255</v>
+        <v>14466.9885410419</v>
       </c>
       <c r="Q64">
         <v>19287.0678968012</v>
@@ -6392,10 +6392,10 @@
         <v>5786.12036904036</v>
       </c>
       <c r="U64">
-        <v>10225.5212221866</v>
+        <v>15045.6005779459</v>
       </c>
       <c r="V64">
-        <v>-1175.66065314622</v>
+        <v>-5995.74000890555</v>
       </c>
       <c r="W64">
         <v>-10237.2073277609</v>
@@ -6416,7 +6416,7 @@
         <v>22859.50503</v>
       </c>
       <c r="AC64">
-        <v>21683.8443768538</v>
+        <v>16863.7650210944</v>
       </c>
     </row>
     <row r="65">
@@ -6467,10 +6467,10 @@
         <v>1856.9892</v>
       </c>
       <c r="O65">
-        <v>185308.69424875</v>
+        <v>92654.347124375</v>
       </c>
       <c r="P65">
-        <v>15912.5698006163</v>
+        <v>23863.287250102</v>
       </c>
       <c r="Q65">
         <v>31814.0046995877</v>
@@ -6485,10 +6485,10 @@
         <v>9544.20140987631</v>
       </c>
       <c r="U65">
-        <v>16866.9899416039</v>
+        <v>24817.7073910896</v>
       </c>
       <c r="V65">
-        <v>1568.2506682724</v>
+        <v>-6382.46678121331</v>
       </c>
       <c r="W65">
         <v>-13378.7640897114</v>
@@ -6509,7 +6509,7 @@
         <v>-2665.33497</v>
       </c>
       <c r="AC65">
-        <v>-1097.08430172759</v>
+        <v>-9047.80175121331</v>
       </c>
     </row>
     <row r="66">
@@ -6560,10 +6560,10 @@
         <v>4023.426</v>
       </c>
       <c r="O66">
-        <v>362152.868783333</v>
+        <v>181076.434391667</v>
       </c>
       <c r="P66">
-        <v>31098.2861671483</v>
+        <v>46636.5486587712</v>
       </c>
       <c r="Q66">
         <v>62174.811150394</v>
@@ -6578,10 +6578,10 @@
         <v>18652.4433451182</v>
       </c>
       <c r="U66">
-        <v>32963.5305016601</v>
+        <v>48501.792993283</v>
       </c>
       <c r="V66">
-        <v>8000.63884345806</v>
+        <v>-7537.62364816479</v>
       </c>
       <c r="W66">
         <v>-21210.6418052758</v>
@@ -6602,7 +6602,7 @@
         <v>-10970.17497</v>
       </c>
       <c r="AC66">
-        <v>-2969.53612654194</v>
+        <v>-18507.7986181648</v>
       </c>
     </row>
     <row r="67">
@@ -6653,10 +6653,10 @@
         <v>4077.6516</v>
       </c>
       <c r="O67">
-        <v>362152.868783333</v>
+        <v>181076.434391667</v>
       </c>
       <c r="P67">
-        <v>31098.2861671483</v>
+        <v>46636.5486587712</v>
       </c>
       <c r="Q67">
         <v>62174.811150394</v>
@@ -6671,10 +6671,10 @@
         <v>18652.4433451182</v>
       </c>
       <c r="U67">
-        <v>32963.5305016601</v>
+        <v>48501.792993283</v>
       </c>
       <c r="V67">
-        <v>23746.9944434581</v>
+        <v>8208.73195183521</v>
       </c>
       <c r="W67">
         <v>-5464.2862052758</v>
@@ -6695,7 +6695,7 @@
         <v>-629.609969999998</v>
       </c>
       <c r="AC67">
-        <v>23117.3844734581</v>
+        <v>7579.12198183521</v>
       </c>
     </row>
     <row r="68">
@@ -6839,10 +6839,10 @@
         <v>2724.645</v>
       </c>
       <c r="O69">
-        <v>277963.041373125</v>
+        <v>138981.520686562</v>
       </c>
       <c r="P69">
-        <v>23868.8547009244</v>
+        <v>35794.930875153</v>
       </c>
       <c r="Q69">
         <v>47721.0070493815</v>
@@ -6857,10 +6857,10 @@
         <v>14316.3021148145</v>
       </c>
       <c r="U69">
-        <v>25300.4849124059</v>
+        <v>37226.5610866344</v>
       </c>
       <c r="V69">
-        <v>16509.9622024086</v>
+        <v>4583.88602818004</v>
       </c>
       <c r="W69">
         <v>-5910.55993456707</v>
@@ -6881,7 +6881,7 @@
         <v>-1359.04497</v>
       </c>
       <c r="AC69">
-        <v>15150.9172324086</v>
+        <v>3224.84105818005</v>
       </c>
     </row>
     <row r="70">
@@ -6932,10 +6932,10 @@
         <v>3935.5866</v>
       </c>
       <c r="O70">
-        <v>401502.170872292</v>
+        <v>200751.085436146</v>
       </c>
       <c r="P70">
-        <v>34477.2345680019</v>
+        <v>51703.7890418876</v>
       </c>
       <c r="Q70">
         <v>68930.3435157733</v>
@@ -6950,10 +6950,10 @@
         <v>20679.103054732</v>
       </c>
       <c r="U70">
-        <v>36545.1448734751</v>
+        <v>53771.6993473608</v>
       </c>
       <c r="V70">
-        <v>8940.07978125687</v>
+        <v>-8286.47469262883</v>
       </c>
       <c r="W70">
         <v>-23445.1188610413</v>
@@ -6974,7 +6974,7 @@
         <v>3525.15003</v>
       </c>
       <c r="AC70">
-        <v>12465.2298112569</v>
+        <v>-4761.32466262882</v>
       </c>
     </row>
     <row r="71">
@@ -7025,10 +7025,10 @@
         <v>3140.6628</v>
       </c>
       <c r="O71">
-        <v>307294.20937</v>
+        <v>153647.104685</v>
       </c>
       <c r="P71">
-        <v>26387.539860172</v>
+        <v>39572.0773826496</v>
       </c>
       <c r="Q71">
         <v>52756.6149051272</v>
@@ -7043,10 +7043,10 @@
         <v>15826.9844715382</v>
       </c>
       <c r="U71">
-        <v>27970.2383073258</v>
+        <v>41154.7758298034</v>
       </c>
       <c r="V71">
-        <v>2893.85896421234</v>
+        <v>-10290.6785582653</v>
       </c>
       <c r="W71">
         <v>-21892.517633589</v>
@@ -7067,7 +7067,7 @@
         <v>-2705.81997</v>
       </c>
       <c r="AC71">
-        <v>188.038994212346</v>
+        <v>-12996.4985282653</v>
       </c>
     </row>
     <row r="72">
@@ -7118,10 +7118,10 @@
         <v>2312.2638</v>
       </c>
       <c r="O72">
-        <v>222863.303866667</v>
+        <v>111431.651933333</v>
       </c>
       <c r="P72">
-        <v>19137.4068720913</v>
+        <v>28699.4145592438</v>
       </c>
       <c r="Q72">
         <v>38261.4222463963</v>
@@ -7136,10 +7136,10 @@
         <v>11478.4266739189</v>
       </c>
       <c r="U72">
-        <v>20285.2495394832</v>
+        <v>29847.2572266357</v>
       </c>
       <c r="V72">
-        <v>-2991.12906556427</v>
+        <v>-12553.1367527168</v>
       </c>
       <c r="W72">
         <v>-20967.3017724774</v>
@@ -7160,7 +7160,7 @@
         <v>-2665.33497</v>
       </c>
       <c r="AC72">
-        <v>-5656.46403556426</v>
+        <v>-15218.4717227168</v>
       </c>
     </row>
     <row r="73">
@@ -7304,10 +7304,10 @@
         <v>1046.9448</v>
       </c>
       <c r="O74">
-        <v>118931.859275</v>
+        <v>59465.9296375</v>
       </c>
       <c r="P74">
-        <v>10212.7507827026</v>
+        <v>15315.5529619041</v>
       </c>
       <c r="Q74">
         <v>20418.3551411057</v>
@@ -7322,10 +7322,10 @@
         <v>6125.50654233172</v>
       </c>
       <c r="U74">
-        <v>10825.3014369357</v>
+        <v>15928.1036161373</v>
       </c>
       <c r="V74">
-        <v>1105.98990539599</v>
+        <v>-3996.81227380559</v>
       </c>
       <c r="W74">
         <v>-8487.063798774</v>
@@ -7346,7 +7346,7 @@
         <v>-9048.88497</v>
       </c>
       <c r="AC74">
-        <v>-7942.89506460401</v>
+        <v>-13045.6972438056</v>
       </c>
     </row>
     <row r="75">
@@ -7397,16 +7397,16 @@
         <v>1010.328</v>
       </c>
       <c r="O75">
-        <v>149789.855195</v>
+        <v>74894.9275975</v>
       </c>
       <c r="P75">
-        <v>12862.5455803767</v>
+        <v>19289.3180547225</v>
       </c>
       <c r="Q75">
         <v>25716.0905290683</v>
       </c>
       <c r="R75">
-        <v>855.930605241188</v>
+        <v>855.930605241189</v>
       </c>
       <c r="S75">
         <v>771.482715872048</v>
@@ -7415,10 +7415,10 @@
         <v>7714.82715872049</v>
       </c>
       <c r="U75">
-        <v>13634.0282962488</v>
+        <v>20060.8007705946</v>
       </c>
       <c r="V75">
-        <v>-2612.67313752829</v>
+        <v>-9039.44561187407</v>
       </c>
       <c r="W75">
         <v>-14694.7353703478</v>
@@ -7439,7 +7439,7 @@
         <v>1253.53503</v>
       </c>
       <c r="AC75">
-        <v>-1359.13810752829</v>
+        <v>-7785.91058187407</v>
       </c>
     </row>
     <row r="76">
@@ -7490,10 +7490,10 @@
         <v>2158.9458</v>
       </c>
       <c r="O76">
-        <v>299579.71039</v>
+        <v>149789.855195</v>
       </c>
       <c r="P76">
-        <v>25725.0911607535</v>
+        <v>38578.636109445</v>
       </c>
       <c r="Q76">
         <v>51432.1810581366</v>
@@ -7508,10 +7508,10 @@
         <v>15429.654317441</v>
       </c>
       <c r="U76">
-        <v>27268.0565924976</v>
+        <v>40121.6015411891</v>
       </c>
       <c r="V76">
-        <v>133.933524943408</v>
+        <v>-12719.6114237481</v>
       </c>
       <c r="W76">
         <v>-24030.1909406956</v>
@@ -7532,7 +7532,7 @@
         <v>-3590.17497</v>
       </c>
       <c r="AC76">
-        <v>-3456.24144505659</v>
+        <v>-16309.7863937481</v>
       </c>
     </row>
     <row r="77">
@@ -7583,10 +7583,10 @@
         <v>941.1138</v>
       </c>
       <c r="O77">
-        <v>101734.95529875</v>
+        <v>50867.477649375</v>
       </c>
       <c r="P77">
-        <v>8736.04222358205</v>
+        <v>13101.0067903856</v>
       </c>
       <c r="Q77">
         <v>17465.9713571891</v>
@@ -7601,10 +7601,10 @@
         <v>5239.79140715672</v>
       </c>
       <c r="U77">
-        <v>9260.02136429772</v>
+        <v>13624.9859311012</v>
       </c>
       <c r="V77">
-        <v>-227.256157140997</v>
+        <v>-4592.22072394451</v>
       </c>
       <c r="W77">
         <v>-8433.20615003236</v>
@@ -7625,7 +7625,7 @@
         <v>3675.39003</v>
       </c>
       <c r="AC77">
-        <v>3448.13387285901</v>
+        <v>-916.830693944512</v>
       </c>
     </row>
     <row r="78">
@@ -7769,10 +7769,10 @@
         <v>2785.4574</v>
       </c>
       <c r="O79">
-        <v>250721.21685</v>
+        <v>125360.608425</v>
       </c>
       <c r="P79">
-        <v>21529.5827311027</v>
+        <v>32286.8413791493</v>
       </c>
       <c r="Q79">
         <v>43044.1000271958</v>
@@ -7787,10 +7787,10 @@
         <v>12913.2300081588</v>
       </c>
       <c r="U79">
-        <v>22820.9057319186</v>
+        <v>33578.1643799651</v>
       </c>
       <c r="V79">
-        <v>-2901.8283237598</v>
+        <v>-13659.0869718064</v>
       </c>
       <c r="W79">
         <v>-23125.0226190371</v>
@@ -7811,7 +7811,7 @@
         <v>20628.37503</v>
       </c>
       <c r="AC79">
-        <v>17726.5467062402</v>
+        <v>6969.28805819362</v>
       </c>
     </row>
     <row r="80">
@@ -7955,10 +7955,10 @@
         <v>2312.2638</v>
       </c>
       <c r="O81">
-        <v>247078.258998333</v>
+        <v>123539.129499167</v>
       </c>
       <c r="P81">
-        <v>21216.759734155</v>
+        <v>31817.7163334693</v>
       </c>
       <c r="Q81">
         <v>42418.6729327836</v>
@@ -7973,10 +7973,10 @@
         <v>12725.6018798351</v>
       </c>
       <c r="U81">
-        <v>22489.3199221385</v>
+        <v>33090.2765214528</v>
       </c>
       <c r="V81">
-        <v>10065.6957576965</v>
+        <v>-535.260841617739</v>
       </c>
       <c r="W81">
         <v>-9863.65725294851</v>
@@ -7997,7 +7997,7 @@
         <v>17438.94003</v>
       </c>
       <c r="AC81">
-        <v>27504.6357876965</v>
+        <v>16903.6791883823</v>
       </c>
     </row>
     <row r="82">
@@ -8048,10 +8048,10 @@
         <v>867.1938</v>
       </c>
       <c r="O82">
-        <v>92654.347124375</v>
+        <v>46327.1735621875</v>
       </c>
       <c r="P82">
-        <v>7956.28490030814</v>
+        <v>11931.643625051</v>
       </c>
       <c r="Q82">
         <v>15907.0023497938</v>
@@ -8066,10 +8066,10 @@
         <v>4772.10070493815</v>
       </c>
       <c r="U82">
-        <v>8433.49497080195</v>
+        <v>12408.8536955448</v>
       </c>
       <c r="V82">
-        <v>3775.4495341362</v>
+        <v>-199.909190606655</v>
       </c>
       <c r="W82">
         <v>-3698.05784485569</v>
@@ -8090,7 +8090,7 @@
         <v>-1359.04497</v>
       </c>
       <c r="AC82">
-        <v>2416.4045641362</v>
+        <v>-1558.95416060665</v>
       </c>
     </row>
     <row r="83">
@@ -8141,10 +8141,10 @@
         <v>2698.6938</v>
       </c>
       <c r="O83">
-        <v>297329.6481875</v>
+        <v>148664.82409375</v>
       </c>
       <c r="P83">
-        <v>25531.8769567564</v>
+        <v>38288.8824047603</v>
       </c>
       <c r="Q83">
         <v>51045.8878527643</v>
@@ -8159,10 +8159,10 @@
         <v>15313.7663558293</v>
       </c>
       <c r="U83">
-        <v>27063.2535923393</v>
+        <v>39820.2590403433</v>
       </c>
       <c r="V83">
-        <v>-872.933436510019</v>
+        <v>-13629.938884514</v>
       </c>
       <c r="W83">
         <v>-24855.567696935</v>
@@ -8183,7 +8183,7 @@
         <v>-10893.88497</v>
       </c>
       <c r="AC83">
-        <v>-11766.81840651</v>
+        <v>-24523.823854514</v>
       </c>
     </row>
     <row r="84">
@@ -8234,10 +8234,10 @@
         <v>1570.3116</v>
       </c>
       <c r="O84">
-        <v>153647.104685</v>
+        <v>76823.5523425</v>
       </c>
       <c r="P84">
-        <v>13193.769930086</v>
+        <v>19786.0386913248</v>
       </c>
       <c r="Q84">
         <v>26378.3074525636</v>
@@ -8252,10 +8252,10 @@
         <v>7913.49223576908</v>
       </c>
       <c r="U84">
-        <v>13985.1191536629</v>
+        <v>20577.3879149017</v>
       </c>
       <c r="V84">
-        <v>1446.83468210617</v>
+        <v>-5145.43407913263</v>
       </c>
       <c r="W84">
         <v>-10946.3536167945</v>
@@ -8276,7 +8276,7 @@
         <v>10559.50503</v>
       </c>
       <c r="AC84">
-        <v>12006.3397121062</v>
+        <v>5414.07095086737</v>
       </c>
     </row>
     <row r="85">
@@ -8327,16 +8327,16 @@
         <v>1010.328</v>
       </c>
       <c r="O85">
-        <v>149789.855195</v>
+        <v>74894.9275975</v>
       </c>
       <c r="P85">
-        <v>12862.5455803767</v>
+        <v>19289.3180547225</v>
       </c>
       <c r="Q85">
         <v>25716.0905290683</v>
       </c>
       <c r="R85">
-        <v>855.930605241188</v>
+        <v>855.930605241189</v>
       </c>
       <c r="S85">
         <v>771.482715872048</v>
@@ -8345,10 +8345,10 @@
         <v>7714.82715872049</v>
       </c>
       <c r="U85">
-        <v>13634.0282962488</v>
+        <v>20060.8007705946</v>
       </c>
       <c r="V85">
-        <v>-1081.8731375283</v>
+        <v>-7508.64561187407</v>
       </c>
       <c r="W85">
         <v>-13163.9353703478</v>
@@ -8369,7 +8369,7 @@
         <v>24780.79503</v>
       </c>
       <c r="AC85">
-        <v>23698.9218924717</v>
+        <v>17272.1494181259</v>
       </c>
     </row>
     <row r="86">
@@ -8420,10 +8420,10 @@
         <v>627.4356</v>
       </c>
       <c r="O86">
-        <v>61769.5647495833</v>
+        <v>30884.7823747917</v>
       </c>
       <c r="P86">
-        <v>5304.18993353876</v>
+        <v>7954.42908336733</v>
       </c>
       <c r="Q86">
         <v>10604.6682331959</v>
@@ -8438,10 +8438,10 @@
         <v>3181.40046995877</v>
       </c>
       <c r="U86">
-        <v>5622.32998053464</v>
+        <v>8272.5691303632</v>
       </c>
       <c r="V86">
-        <v>2464.47608942413</v>
+        <v>-185.763060404435</v>
       </c>
       <c r="W86">
         <v>-2517.86216323713</v>
@@ -8462,7 +8462,7 @@
         <v>-2665.33497</v>
       </c>
       <c r="AC86">
-        <v>-200.858880575862</v>
+        <v>-2851.09803040443</v>
       </c>
     </row>
     <row r="87">
@@ -8513,10 +8513,10 @@
         <v>2785.4574</v>
       </c>
       <c r="O87">
-        <v>250721.21685</v>
+        <v>125360.608425</v>
       </c>
       <c r="P87">
-        <v>21529.5827311027</v>
+        <v>32286.8413791493</v>
       </c>
       <c r="Q87">
         <v>43044.1000271958</v>
@@ -8531,10 +8531,10 @@
         <v>12913.2300081588</v>
       </c>
       <c r="U87">
-        <v>22820.9057319186</v>
+        <v>33578.1643799651</v>
       </c>
       <c r="V87">
-        <v>9759.3416762402</v>
+        <v>-997.916971806382</v>
       </c>
       <c r="W87">
         <v>-10463.8526190371</v>
@@ -8555,7 +8555,7 @@
         <v>-2665.33497</v>
       </c>
       <c r="AC87">
-        <v>7094.0067062402</v>
+        <v>-3663.25194180638</v>
       </c>
     </row>
     <row r="88">
@@ -8606,10 +8606,10 @@
         <v>261.7956</v>
       </c>
       <c r="O88">
-        <v>25607.8507808333</v>
+        <v>12803.9253904167</v>
       </c>
       <c r="P88">
-        <v>2198.96165501433</v>
+        <v>3297.6731152208</v>
       </c>
       <c r="Q88">
         <v>4396.38457542727</v>
@@ -8624,10 +8624,10 @@
         <v>1318.91537262818</v>
       </c>
       <c r="U88">
-        <v>2330.85319227715</v>
+        <v>3429.56465248362</v>
       </c>
       <c r="V88">
-        <v>1233.15778035103</v>
+        <v>134.446320144562</v>
       </c>
       <c r="W88">
         <v>-832.373602799087</v>
@@ -8648,7 +8648,7 @@
         <v>-9816.46497</v>
       </c>
       <c r="AC88">
-        <v>-8583.30718964897</v>
+        <v>-9682.01864985544</v>
       </c>
     </row>
     <row r="89">
@@ -8699,10 +8699,10 @@
         <v>3238.4418</v>
       </c>
       <c r="O89">
-        <v>449369.565585</v>
+        <v>224684.7827925</v>
       </c>
       <c r="P89">
-        <v>38587.6367411302</v>
+        <v>57867.9541641675</v>
       </c>
       <c r="Q89">
         <v>77148.2715872049</v>
@@ -8717,10 +8717,10 @@
         <v>23144.4814761615</v>
       </c>
       <c r="U89">
-        <v>40902.0848887463</v>
+        <v>60182.4023117837</v>
       </c>
       <c r="V89">
-        <v>5107.75838741512</v>
+        <v>-14172.5590356222</v>
       </c>
       <c r="W89">
         <v>-31138.4283110434</v>
@@ -8741,7 +8741,7 @@
         <v>15784.66503</v>
       </c>
       <c r="AC89">
-        <v>20892.4234174151</v>
+        <v>1612.10599437779</v>
       </c>
     </row>
     <row r="90">
@@ -8792,10 +8792,10 @@
         <v>3094.9512</v>
       </c>
       <c r="O90">
-        <v>339116.5176625</v>
+        <v>169558.25883125</v>
       </c>
       <c r="P90">
-        <v>29120.1407452735</v>
+        <v>43670.0226346186</v>
       </c>
       <c r="Q90">
         <v>58219.9045239636</v>
@@ -8810,10 +8810,10 @@
         <v>17465.9713571891</v>
       </c>
       <c r="U90">
-        <v>30866.7378809924</v>
+        <v>45416.6197703375</v>
       </c>
       <c r="V90">
-        <v>13140.7846761967</v>
+        <v>-1409.09721314839</v>
       </c>
       <c r="W90">
         <v>-14212.3819667745</v>
@@ -8834,7 +8834,7 @@
         <v>-11470.73997</v>
       </c>
       <c r="AC90">
-        <v>1670.04470619668</v>
+        <v>-12879.8371831484</v>
       </c>
     </row>
     <row r="91">
@@ -8885,10 +8885,10 @@
         <v>2409.2574</v>
       </c>
       <c r="O91">
-        <v>230470.6570275</v>
+        <v>115235.32851375</v>
       </c>
       <c r="P91">
-        <v>19790.654895129</v>
+        <v>29679.0580369872</v>
       </c>
       <c r="Q91">
         <v>39567.4611788454</v>
@@ -8903,10 +8903,10 @@
         <v>11870.2383536536</v>
       </c>
       <c r="U91">
-        <v>20977.6787304944</v>
+        <v>30866.0818723526</v>
       </c>
       <c r="V91">
-        <v>13378.9620231593</v>
+        <v>3490.55888130105</v>
       </c>
       <c r="W91">
         <v>-5210.82042519179</v>
@@ -8927,7 +8927,7 @@
         <v>-13277.59497</v>
       </c>
       <c r="AC91">
-        <v>101.367053159265</v>
+        <v>-9787.03608869894</v>
       </c>
     </row>
     <row r="92">
@@ -8978,10 +8978,10 @@
         <v>1816.4388</v>
       </c>
       <c r="O92">
-        <v>167147.4779</v>
+        <v>83573.73895</v>
       </c>
       <c r="P92">
-        <v>14353.0551540685</v>
+        <v>21524.5609194328</v>
       </c>
       <c r="Q92">
         <v>28696.0666847972</v>
@@ -8996,10 +8996,10 @@
         <v>8608.82000543917</v>
       </c>
       <c r="U92">
-        <v>15213.9371546124</v>
+        <v>22385.4429199768</v>
       </c>
       <c r="V92">
-        <v>11724.4016508268</v>
+        <v>4552.89588546241</v>
       </c>
       <c r="W92">
         <v>-1757.72787935806</v>
@@ -9020,7 +9020,7 @@
         <v>-5201.62497</v>
       </c>
       <c r="AC92">
-        <v>6522.7766808268</v>
+        <v>-648.729084537586</v>
       </c>
     </row>
     <row r="93">
@@ -9071,10 +9071,10 @@
         <v>605.5698</v>
       </c>
       <c r="O93">
-        <v>55715.8259666667</v>
+        <v>27857.9129833333</v>
       </c>
       <c r="P93">
-        <v>4784.35171802282</v>
+        <v>7174.85363981095</v>
       </c>
       <c r="Q93">
         <v>9565.35556159908</v>
@@ -9089,10 +9089,10 @@
         <v>2869.60666847972</v>
       </c>
       <c r="U93">
-        <v>5071.31238487079</v>
+        <v>7461.81430665892</v>
       </c>
       <c r="V93">
-        <v>238.924083608933</v>
+        <v>-2151.5778381792</v>
       </c>
       <c r="W93">
         <v>-4255.11909311935</v>
@@ -9113,7 +9113,7 @@
         <v>-4820.17497</v>
       </c>
       <c r="AC93">
-        <v>-4581.25088639107</v>
+        <v>-6971.7528081792</v>
       </c>
     </row>
     <row r="94">
@@ -9164,10 +9164,10 @@
         <v>2822.9982</v>
       </c>
       <c r="O94">
-        <v>277963.041373125</v>
+        <v>138981.520686562</v>
       </c>
       <c r="P94">
-        <v>23868.8547009244</v>
+        <v>35794.930875153</v>
       </c>
       <c r="Q94">
         <v>47721.0070493815</v>
@@ -9182,10 +9182,10 @@
         <v>14316.3021148145</v>
       </c>
       <c r="U94">
-        <v>25300.4849124059</v>
+        <v>37226.5610866344</v>
       </c>
       <c r="V94">
-        <v>17502.4354024086</v>
+        <v>5576.35922818004</v>
       </c>
       <c r="W94">
         <v>-4918.08673456708</v>
@@ -9206,7 +9206,7 @@
         <v>-8662.75497</v>
       </c>
       <c r="AC94">
-        <v>8839.6804324086</v>
+        <v>-3086.39574181996</v>
       </c>
     </row>
     <row r="95">
@@ -9257,10 +9257,10 @@
         <v>313.7442</v>
       </c>
       <c r="O95">
-        <v>33911.65176625</v>
+        <v>16955.825883125</v>
       </c>
       <c r="P95">
-        <v>2912.01407452735</v>
+        <v>4367.00226346186</v>
       </c>
       <c r="Q95">
         <v>5821.99045239636</v>
@@ -9275,10 +9275,10 @@
         <v>1746.59713571891</v>
       </c>
       <c r="U95">
-        <v>3086.67378809924</v>
+        <v>4541.66197703375</v>
       </c>
       <c r="V95">
-        <v>637.462547619668</v>
+        <v>-817.525641314839</v>
       </c>
       <c r="W95">
         <v>-2097.85411667745</v>
@@ -9299,7 +9299,7 @@
         <v>-8433.88497</v>
       </c>
       <c r="AC95">
-        <v>-7796.42242238033</v>
+        <v>-9251.41061131484</v>
       </c>
     </row>
     <row r="96">
@@ -9350,10 +9350,10 @@
         <v>2509.3398</v>
       </c>
       <c r="O96">
-        <v>271293.21413</v>
+        <v>135646.607065</v>
       </c>
       <c r="P96">
-        <v>23296.1125962188</v>
+        <v>34936.0181076949</v>
       </c>
       <c r="Q96">
         <v>46575.9236191709</v>
@@ -9368,10 +9368,10 @@
         <v>13972.7770857513</v>
       </c>
       <c r="U96">
-        <v>24693.3903047939</v>
+        <v>36333.29581627</v>
       </c>
       <c r="V96">
-        <v>10798.8765809573</v>
+        <v>-841.028930518711</v>
       </c>
       <c r="W96">
         <v>-11083.6567334196</v>
@@ -9392,7 +9392,7 @@
         <v>-2894.20497</v>
       </c>
       <c r="AC96">
-        <v>7904.67161095735</v>
+        <v>-3735.23390051871</v>
       </c>
     </row>
     <row r="97">
@@ -9443,10 +9443,10 @@
         <v>2724.645</v>
       </c>
       <c r="O97">
-        <v>277963.041373125</v>
+        <v>138981.520686562</v>
       </c>
       <c r="P97">
-        <v>23868.8547009244</v>
+        <v>35794.930875153</v>
       </c>
       <c r="Q97">
         <v>47721.0070493815</v>
@@ -9461,10 +9461,10 @@
         <v>14316.3021148145</v>
       </c>
       <c r="U97">
-        <v>25300.4849124059</v>
+        <v>37226.5610866344</v>
       </c>
       <c r="V97">
-        <v>2061.08720240861</v>
+        <v>-9864.98897181996</v>
       </c>
       <c r="W97">
         <v>-20359.4349345671</v>
@@ -9485,7 +9485,7 @@
         <v>18206.52003</v>
       </c>
       <c r="AC97">
-        <v>20267.6072324086</v>
+        <v>8341.53105818004</v>
       </c>
     </row>
     <row r="98">
@@ -9536,10 +9536,10 @@
         <v>2166.4764</v>
       </c>
       <c r="O98">
-        <v>216193.476623542</v>
+        <v>108096.738311771</v>
       </c>
       <c r="P98">
-        <v>18564.6647673857</v>
+        <v>27840.5017917856</v>
       </c>
       <c r="Q98">
         <v>37116.3388161856</v>
@@ -9554,10 +9554,10 @@
         <v>11134.9016448557</v>
       </c>
       <c r="U98">
-        <v>19678.1549318712</v>
+        <v>28953.9919562712</v>
       </c>
       <c r="V98">
-        <v>-1452.96688701553</v>
+        <v>-10728.8039114155</v>
       </c>
       <c r="W98">
         <v>-18891.15077133</v>
@@ -9578,7 +9578,7 @@
         <v>-1780.97997</v>
       </c>
       <c r="AC98">
-        <v>-3233.94685701553</v>
+        <v>-12509.7838814155</v>
       </c>
     </row>
     <row r="99">
@@ -9722,10 +9722,10 @@
         <v>523.5714</v>
       </c>
       <c r="O100">
-        <v>74894.9275975</v>
+        <v>37447.46379875</v>
       </c>
       <c r="P100">
-        <v>6431.27279018837</v>
+        <v>9644.65902736125</v>
       </c>
       <c r="Q100">
         <v>12858.0452645341</v>
@@ -9740,10 +9740,10 @@
         <v>3857.41357936024</v>
       </c>
       <c r="U100">
-        <v>6817.01414812439</v>
+        <v>10030.4003852973</v>
       </c>
       <c r="V100">
-        <v>-56.1591687641476</v>
+        <v>-3269.54540593703</v>
       </c>
       <c r="W100">
         <v>-6097.1902851739</v>
@@ -9764,7 +9764,7 @@
         <v>-8085.89997</v>
       </c>
       <c r="AC100">
-        <v>-8142.05913876415</v>
+        <v>-11355.445375937</v>
       </c>
     </row>
     <row r="101">
@@ -9815,10 +9815,10 @@
         <v>3212.3586</v>
       </c>
       <c r="O101">
-        <v>307294.20937</v>
+        <v>153647.104685</v>
       </c>
       <c r="P101">
-        <v>26387.539860172</v>
+        <v>39572.0773826496</v>
       </c>
       <c r="Q101">
         <v>52756.6149051272</v>
@@ -9833,10 +9833,10 @@
         <v>15826.9844715382</v>
       </c>
       <c r="U101">
-        <v>27970.2383073258</v>
+        <v>41154.7758298034</v>
       </c>
       <c r="V101">
-        <v>-1630.08023578766</v>
+        <v>-14814.6177582653</v>
       </c>
       <c r="W101">
         <v>-26416.456833589</v>
@@ -9857,7 +9857,7 @@
         <v>1715.95503</v>
       </c>
       <c r="AC101">
-        <v>85.8747942123446</v>
+        <v>-13098.6627282653</v>
       </c>
     </row>
   </sheetData>

--- a/Results/SBAV Profit Sample.xlsx
+++ b/Results/SBAV Profit Sample.xlsx
@@ -608,10 +608,10 @@
         <v>252.6348</v>
       </c>
       <c r="O2">
-        <v>14866.482409375</v>
+        <v>29732.96481875</v>
       </c>
       <c r="P2">
-        <v>3828.88824047603</v>
+        <v>2578.71063960202</v>
       </c>
       <c r="Q2">
         <v>5104.58878527643</v>
@@ -626,10 +626,10 @@
         <v>1531.37663558293</v>
       </c>
       <c r="U2">
-        <v>3982.02590403433</v>
+        <v>2731.84830316031</v>
       </c>
       <c r="V2">
-        <v>-1623.8444684514</v>
+        <v>-373.666867577384</v>
       </c>
       <c r="W2">
         <v>-2746.4073496935</v>
@@ -650,7 +650,7 @@
         <v>-9239.60997</v>
       </c>
       <c r="AC2">
-        <v>-10863.4544384514</v>
+        <v>-9613.27683757738</v>
       </c>
     </row>
     <row r="3">
@@ -701,10 +701,10 @@
         <v>941.1138</v>
       </c>
       <c r="O3">
-        <v>41786.869475</v>
+        <v>83573.73895</v>
       </c>
       <c r="P3">
-        <v>10762.2804597164</v>
+        <v>7248.26774374622</v>
       </c>
       <c r="Q3">
         <v>14348.0333423986</v>
@@ -719,10 +719,10 @@
         <v>4304.41000271958</v>
       </c>
       <c r="U3">
-        <v>11192.7214599884</v>
+        <v>7678.70874401818</v>
       </c>
       <c r="V3">
-        <v>-1669.40765726879</v>
+        <v>1844.60505870141</v>
       </c>
       <c r="W3">
         <v>-4824.71953967903</v>
@@ -743,7 +743,7 @@
         <v>-7318.31997</v>
       </c>
       <c r="AC3">
-        <v>-8987.72762726879</v>
+        <v>-5473.71491129859</v>
       </c>
     </row>
     <row r="4">
@@ -794,10 +794,10 @@
         <v>2822.9982</v>
       </c>
       <c r="O4">
-        <v>152602.432948125</v>
+        <v>305204.86589625</v>
       </c>
       <c r="P4">
-        <v>39303.0203711567</v>
+        <v>26470.116241104</v>
       </c>
       <c r="Q4">
         <v>52397.9140715673</v>
@@ -812,10 +812,10 @@
         <v>15719.3742214702</v>
       </c>
       <c r="U4">
-        <v>40874.9577933037</v>
+        <v>28042.053663251</v>
       </c>
       <c r="V4">
-        <v>-7362.14037183355</v>
+        <v>5470.76375821917</v>
       </c>
       <c r="W4">
         <v>-18885.0966500971</v>
@@ -836,7 +836,7 @@
         <v>-6202.75497</v>
       </c>
       <c r="AC4">
-        <v>-13564.8953418335</v>
+        <v>-731.991211780824</v>
       </c>
     </row>
     <row r="5">
@@ -887,10 +887,10 @@
         <v>2878.9398</v>
       </c>
       <c r="O5">
-        <v>163531.306503125</v>
+        <v>327062.61300625</v>
       </c>
       <c r="P5">
-        <v>42117.7706452364</v>
+        <v>28365.8170356222</v>
       </c>
       <c r="Q5">
         <v>56150.4766380407</v>
@@ -905,10 +905,10 @@
         <v>16845.1429914122</v>
       </c>
       <c r="U5">
-        <v>43802.2849443776</v>
+        <v>30050.3313347634</v>
       </c>
       <c r="V5">
-        <v>-2268.05215296538</v>
+        <v>11483.9014566488</v>
       </c>
       <c r="W5">
         <v>-14616.2438466285</v>
@@ -929,7 +929,7 @@
         <v>16709.50503</v>
       </c>
       <c r="AC5">
-        <v>14441.4528770346</v>
+        <v>28193.4064866488</v>
       </c>
     </row>
     <row r="6">
@@ -980,10 +980,10 @@
         <v>2023.2366</v>
       </c>
       <c r="O6">
-        <v>118690.781181875</v>
+        <v>237381.56236375</v>
       </c>
       <c r="P6">
-        <v>30569.015844233</v>
+        <v>20587.8681875253</v>
       </c>
       <c r="Q6">
         <v>40753.9331667745</v>
@@ -998,10 +998,10 @@
         <v>12226.1799500324</v>
       </c>
       <c r="U6">
-        <v>31791.6338392362</v>
+        <v>21810.4861825286</v>
       </c>
       <c r="V6">
-        <v>850.842710796132</v>
+        <v>10831.9903675038</v>
       </c>
       <c r="W6">
         <v>-8111.45661674217</v>
@@ -1022,7 +1022,7 @@
         <v>-10624.52997</v>
       </c>
       <c r="AC6">
-        <v>-9773.68725920387</v>
+        <v>207.460397503799</v>
       </c>
     </row>
     <row r="7">
@@ -1166,10 +1166,10 @@
         <v>3535.9632</v>
       </c>
       <c r="O8">
-        <v>262132.24659125</v>
+        <v>524264.4931825</v>
       </c>
       <c r="P8">
-        <v>67512.6131915288</v>
+        <v>45468.9411155772</v>
       </c>
       <c r="Q8">
         <v>90006.316851739</v>
@@ -1184,10 +1184,10 @@
         <v>27001.8950555217</v>
       </c>
       <c r="U8">
-        <v>70212.8026970809</v>
+        <v>48169.1306211294</v>
       </c>
       <c r="V8">
-        <v>-23602.3844415592</v>
+        <v>-1558.7123656077</v>
       </c>
       <c r="W8">
         <v>-43395.8985962173</v>
@@ -1208,7 +1208,7 @@
         <v>-13277.59497</v>
       </c>
       <c r="AC8">
-        <v>-36879.9794115592</v>
+        <v>-14836.3073356077</v>
       </c>
     </row>
     <row r="9">
@@ -1259,10 +1259,10 @@
         <v>867.1938</v>
       </c>
       <c r="O9">
-        <v>41786.869475</v>
+        <v>83573.73895</v>
       </c>
       <c r="P9">
-        <v>10762.2804597164</v>
+        <v>7248.26774374622</v>
       </c>
       <c r="Q9">
         <v>14348.0333423986</v>
@@ -1277,10 +1277,10 @@
         <v>4304.41000271958</v>
       </c>
       <c r="U9">
-        <v>11192.7214599884</v>
+        <v>7678.70874401818</v>
       </c>
       <c r="V9">
-        <v>548.532342731207</v>
+        <v>4062.54505870141</v>
       </c>
       <c r="W9">
         <v>-2606.77953967903</v>
@@ -1301,7 +1301,7 @@
         <v>-9740.17497</v>
       </c>
       <c r="AC9">
-        <v>-9191.64262726879</v>
+        <v>-5677.62991129859</v>
       </c>
     </row>
     <row r="10">
@@ -1352,10 +1352,10 @@
         <v>1570.3116</v>
       </c>
       <c r="O10">
-        <v>112342.39139625</v>
+        <v>224684.7827925</v>
       </c>
       <c r="P10">
-        <v>28933.9770820838</v>
+        <v>19486.6890495331</v>
       </c>
       <c r="Q10">
         <v>38574.1357936024</v>
@@ -1370,10 +1370,10 @@
         <v>11572.2407380807</v>
       </c>
       <c r="U10">
-        <v>30091.2011558918</v>
+        <v>20643.9131233412</v>
       </c>
       <c r="V10">
-        <v>-14569.3888178111</v>
+        <v>-5122.10078526045</v>
       </c>
       <c r="W10">
         <v>-23052.3234555217</v>
@@ -1394,7 +1394,7 @@
         <v>1756.44003</v>
       </c>
       <c r="AC10">
-        <v>-12812.9487878111</v>
+        <v>-3365.66075526045</v>
       </c>
     </row>
     <row r="11">
@@ -1445,10 +1445,10 @@
         <v>2409.2574</v>
       </c>
       <c r="O11">
-        <v>115235.32851375</v>
+        <v>230470.6570275</v>
       </c>
       <c r="P11">
-        <v>29679.0580369872</v>
+        <v>19988.4922010232</v>
       </c>
       <c r="Q11">
         <v>39567.4611788454</v>
@@ -1463,10 +1463,10 @@
         <v>11870.2383536536</v>
       </c>
       <c r="U11">
-        <v>30866.0818723526</v>
+        <v>21175.5160363886</v>
       </c>
       <c r="V11">
-        <v>5315.75388130105</v>
+        <v>15006.319717265</v>
       </c>
       <c r="W11">
         <v>-3385.62542519179</v>
@@ -1487,7 +1487,7 @@
         <v>-6050.17497</v>
       </c>
       <c r="AC11">
-        <v>-734.421088698951</v>
+        <v>8956.14474726503</v>
       </c>
     </row>
     <row r="12">
@@ -1538,10 +1538,10 @@
         <v>4332.9066</v>
       </c>
       <c r="O12">
-        <v>216193.476623542</v>
+        <v>432386.953247083</v>
       </c>
       <c r="P12">
-        <v>55681.0035835713</v>
+        <v>37500.4929229332</v>
       </c>
       <c r="Q12">
         <v>74232.6776323713</v>
@@ -1556,10 +1556,10 @@
         <v>22269.8032897114</v>
       </c>
       <c r="U12">
-        <v>57907.9839125424</v>
+        <v>39727.4732519043</v>
       </c>
       <c r="V12">
-        <v>-21457.7590228311</v>
+        <v>-3277.24836219291</v>
       </c>
       <c r="W12">
         <v>-37782.4527426599</v>
@@ -1580,7 +1580,7 @@
         <v>-13277.59497</v>
       </c>
       <c r="AC12">
-        <v>-34735.353992831</v>
+        <v>-16554.8433321929</v>
       </c>
     </row>
     <row r="13">
@@ -1631,10 +1631,10 @@
         <v>627.4356</v>
       </c>
       <c r="O13">
-        <v>33911.65176625</v>
+        <v>67823.3035325</v>
       </c>
       <c r="P13">
-        <v>8734.00452692371</v>
+        <v>5882.24805357866</v>
       </c>
       <c r="Q13">
         <v>11643.9809047927</v>
@@ -1649,10 +1649,10 @@
         <v>3493.19427143782</v>
       </c>
       <c r="U13">
-        <v>9083.32395406749</v>
+        <v>6231.56748072244</v>
       </c>
       <c r="V13">
-        <v>-2110.71408262968</v>
+        <v>741.042390715373</v>
       </c>
       <c r="W13">
         <v>-4671.37103335491</v>
@@ -1673,7 +1673,7 @@
         <v>-6355.33497</v>
       </c>
       <c r="AC13">
-        <v>-8466.04905262967</v>
+        <v>-5614.29257928462</v>
       </c>
     </row>
     <row r="14">
@@ -1724,10 +1724,10 @@
         <v>1619.1978</v>
       </c>
       <c r="O14">
-        <v>89198.89445625</v>
+        <v>178397.7889125</v>
       </c>
       <c r="P14">
-        <v>22973.3294428562</v>
+        <v>15472.2638376121</v>
       </c>
       <c r="Q14">
         <v>30627.5327116586</v>
@@ -1742,10 +1742,10 @@
         <v>9188.25981349757</v>
       </c>
       <c r="U14">
-        <v>23892.155424206</v>
+        <v>16391.0898189619</v>
       </c>
       <c r="V14">
-        <v>408.617189291614</v>
+        <v>7909.6827945357</v>
       </c>
       <c r="W14">
         <v>-6326.760098161</v>
@@ -1766,7 +1766,7 @@
         <v>4714.66503</v>
       </c>
       <c r="AC14">
-        <v>5123.28221929162</v>
+        <v>12624.3478245357</v>
       </c>
     </row>
     <row r="15">
@@ -1817,10 +1817,10 @@
         <v>3140.6628</v>
       </c>
       <c r="O15">
-        <v>153647.104685</v>
+        <v>307294.20937</v>
       </c>
       <c r="P15">
-        <v>39572.0773826496</v>
+        <v>26651.3229346976</v>
       </c>
       <c r="Q15">
         <v>52756.6149051272</v>
@@ -1835,10 +1835,10 @@
         <v>15826.9844715382</v>
       </c>
       <c r="U15">
-        <v>41154.7758298034</v>
+        <v>28234.0213818515</v>
       </c>
       <c r="V15">
-        <v>-12669.9685582653</v>
+        <v>250.785889686711</v>
       </c>
       <c r="W15">
         <v>-24271.807633589</v>
@@ -1859,7 +1859,7 @@
         <v>17438.94003</v>
       </c>
       <c r="AC15">
-        <v>4768.97147173474</v>
+        <v>17689.7259196867</v>
       </c>
     </row>
     <row r="16">
@@ -1910,10 +1910,10 @@
         <v>2023.2366</v>
       </c>
       <c r="O16">
-        <v>97502.6954416667</v>
+        <v>195005.390883333</v>
       </c>
       <c r="P16">
-        <v>25111.9877393383</v>
+        <v>16912.6247354078</v>
       </c>
       <c r="Q16">
         <v>33478.7444655968</v>
@@ -1928,10 +1928,10 @@
         <v>10043.623339679</v>
       </c>
       <c r="U16">
-        <v>26116.3500733062</v>
+        <v>17916.9870693758</v>
       </c>
       <c r="V16">
-        <v>-3320.20513362719</v>
+        <v>4879.15787030328</v>
       </c>
       <c r="W16">
         <v>-10682.5995259177</v>
@@ -1952,7 +1952,7 @@
         <v>-7971.46497</v>
       </c>
       <c r="AC16">
-        <v>-11291.6701036272</v>
+        <v>-3092.30709969672</v>
       </c>
     </row>
     <row r="17">
@@ -2003,10 +2003,10 @@
         <v>2428.8198</v>
       </c>
       <c r="O17">
-        <v>133798.341684375</v>
+        <v>267596.68336875</v>
       </c>
       <c r="P17">
-        <v>34459.9941642843</v>
+        <v>23208.3957564182</v>
       </c>
       <c r="Q17">
         <v>45941.2990674879</v>
@@ -2021,10 +2021,10 @@
         <v>13782.3897202464</v>
       </c>
       <c r="U17">
-        <v>35838.2331363089</v>
+        <v>24586.6347284428</v>
       </c>
       <c r="V17">
-        <v>-6746.91861606259</v>
+        <v>4504.67979180354</v>
       </c>
       <c r="W17">
         <v>-16849.9845472415</v>
@@ -2045,7 +2045,7 @@
         <v>15210.15003</v>
       </c>
       <c r="AC17">
-        <v>8463.23141393742</v>
+        <v>19714.8298218035</v>
       </c>
     </row>
     <row r="18">
@@ -2096,10 +2096,10 @@
         <v>605.5698</v>
       </c>
       <c r="O18">
-        <v>33911.65176625</v>
+        <v>67823.3035325</v>
       </c>
       <c r="P18">
-        <v>8734.00452692371</v>
+        <v>5882.24805357866</v>
       </c>
       <c r="Q18">
         <v>11643.9809047927</v>
@@ -2114,10 +2114,10 @@
         <v>3493.19427143782</v>
       </c>
       <c r="U18">
-        <v>9083.32395406749</v>
+        <v>6231.56748072244</v>
       </c>
       <c r="V18">
-        <v>-855.674882629677</v>
+        <v>1996.08159071537</v>
       </c>
       <c r="W18">
         <v>-3416.33183335491</v>
@@ -2138,7 +2138,7 @@
         <v>4714.66503</v>
       </c>
       <c r="AC18">
-        <v>3858.99014737033</v>
+        <v>6710.74662071538</v>
       </c>
     </row>
     <row r="19">
@@ -2189,10 +2189,10 @@
         <v>3763.9866</v>
       </c>
       <c r="O19">
-        <v>203469.9105975</v>
+        <v>406939.821195</v>
       </c>
       <c r="P19">
-        <v>52404.0271615423</v>
+        <v>35293.488321472</v>
       </c>
       <c r="Q19">
         <v>69863.8854287563</v>
@@ -2207,10 +2207,10 @@
         <v>20959.1656286269</v>
       </c>
       <c r="U19">
-        <v>54499.943724405</v>
+        <v>37389.4048843347</v>
       </c>
       <c r="V19">
-        <v>-4113.24649577805</v>
+        <v>12997.2923442922</v>
       </c>
       <c r="W19">
         <v>-19477.1882001294</v>
@@ -2231,7 +2231,7 @@
         <v>-10393.31997</v>
       </c>
       <c r="AC19">
-        <v>-14506.5664657781</v>
+        <v>2603.97237429223</v>
       </c>
     </row>
     <row r="20">
@@ -2375,10 +2375,10 @@
         <v>2020.5306</v>
       </c>
       <c r="O21">
-        <v>149789.855195</v>
+        <v>299579.71039</v>
       </c>
       <c r="P21">
-        <v>38578.636109445</v>
+        <v>25982.2520660441</v>
       </c>
       <c r="Q21">
         <v>51432.1810581366</v>
@@ -2393,10 +2393,10 @@
         <v>15429.654317441</v>
       </c>
       <c r="U21">
-        <v>40121.6015411891</v>
+        <v>27525.2174977882</v>
       </c>
       <c r="V21">
-        <v>-5833.66162374813</v>
+        <v>6762.72241965273</v>
       </c>
       <c r="W21">
         <v>-17144.2411406956</v>
@@ -2417,7 +2417,7 @@
         <v>-3742.75497</v>
       </c>
       <c r="AC21">
-        <v>-9576.41659374813</v>
+        <v>3019.96744965274</v>
       </c>
     </row>
     <row r="22">
@@ -2468,10 +2468,10 @@
         <v>3925.8384</v>
       </c>
       <c r="O22">
-        <v>280855.978490625</v>
+        <v>561711.95698125</v>
       </c>
       <c r="P22">
-        <v>72334.9427052094</v>
+        <v>48716.7226238328</v>
       </c>
       <c r="Q22">
         <v>96435.3394840061</v>
@@ -2486,10 +2486,10 @@
         <v>28930.6018452018</v>
       </c>
       <c r="U22">
-        <v>75228.0028897296</v>
+        <v>51609.782808353</v>
       </c>
       <c r="V22">
-        <v>-15604.4826445278</v>
+        <v>8013.73743684887</v>
       </c>
       <c r="W22">
         <v>-36811.8192388043</v>
@@ -2510,7 +2510,7 @@
         <v>13825.23003</v>
       </c>
       <c r="AC22">
-        <v>-1779.25261452778</v>
+        <v>21838.9674668489</v>
       </c>
     </row>
     <row r="23">
@@ -2561,10 +2561,10 @@
         <v>2273.106</v>
       </c>
       <c r="O23">
-        <v>133798.341684375</v>
+        <v>267596.68336875</v>
       </c>
       <c r="P23">
-        <v>34459.9941642843</v>
+        <v>23208.3957564182</v>
       </c>
       <c r="Q23">
         <v>45941.2990674879</v>
@@ -2579,10 +2579,10 @@
         <v>13782.3897202464</v>
       </c>
       <c r="U23">
-        <v>35838.2331363089</v>
+        <v>24586.6347284428</v>
       </c>
       <c r="V23">
-        <v>-16338.6374160626</v>
+        <v>-5087.03900819646</v>
       </c>
       <c r="W23">
         <v>-26441.7033472415</v>
@@ -2603,7 +2603,7 @@
         <v>-12.2699699999976</v>
       </c>
       <c r="AC23">
-        <v>-16350.9073860626</v>
+        <v>-5099.30897819646</v>
       </c>
     </row>
     <row r="24">
@@ -2654,10 +2654,10 @@
         <v>1882.0164</v>
       </c>
       <c r="O24">
-        <v>92654.347124375</v>
+        <v>185308.69424875</v>
       </c>
       <c r="P24">
-        <v>23863.287250102</v>
+        <v>16071.6398241142</v>
       </c>
       <c r="Q24">
         <v>31814.0046995877</v>
@@ -2672,10 +2672,10 @@
         <v>9544.20140987631</v>
       </c>
       <c r="U24">
-        <v>24817.7073910896</v>
+        <v>17026.0599651018</v>
       </c>
       <c r="V24">
-        <v>-10539.9495812133</v>
+        <v>-2748.30215522554</v>
       </c>
       <c r="W24">
         <v>-17536.2468897114</v>
@@ -2696,7 +2696,7 @@
         <v>-8510.17497</v>
       </c>
       <c r="AC24">
-        <v>-19050.1245512133</v>
+        <v>-11258.4771252255</v>
       </c>
     </row>
     <row r="25">
@@ -2747,10 +2747,10 @@
         <v>3925.8384</v>
       </c>
       <c r="O25">
-        <v>280855.978490625</v>
+        <v>561711.95698125</v>
       </c>
       <c r="P25">
-        <v>72334.9427052094</v>
+        <v>48716.7226238328</v>
       </c>
       <c r="Q25">
         <v>96435.3394840061</v>
@@ -2765,10 +2765,10 @@
         <v>28930.6018452018</v>
       </c>
       <c r="U25">
-        <v>75228.0028897296</v>
+        <v>51609.782808353</v>
       </c>
       <c r="V25">
-        <v>-15604.4826445278</v>
+        <v>8013.73743684887</v>
       </c>
       <c r="W25">
         <v>-36811.8192388043</v>
@@ -2789,7 +2789,7 @@
         <v>-7509.04497</v>
       </c>
       <c r="AC25">
-        <v>-23113.5276145278</v>
+        <v>504.692466848868</v>
       </c>
     </row>
     <row r="26">
@@ -2840,10 +2840,10 @@
         <v>4541.0442</v>
       </c>
       <c r="O26">
-        <v>231635.867810937</v>
+        <v>463271.735621875</v>
       </c>
       <c r="P26">
-        <v>59658.218125255</v>
+        <v>40179.0995602855</v>
       </c>
       <c r="Q26">
         <v>79535.0117489692</v>
@@ -2858,10 +2858,10 @@
         <v>23860.5035246908</v>
       </c>
       <c r="U26">
-        <v>62044.268477724</v>
+        <v>42565.1499127546</v>
       </c>
       <c r="V26">
-        <v>-16441.7957530333</v>
+        <v>3037.32281193616</v>
       </c>
       <c r="W26">
         <v>-33932.5390242785</v>
@@ -2882,7 +2882,7 @@
         <v>14209.02003</v>
       </c>
       <c r="AC26">
-        <v>-2232.77572303327</v>
+        <v>17246.3428419362</v>
       </c>
     </row>
     <row r="27">
@@ -2933,10 +2933,10 @@
         <v>313.7442</v>
       </c>
       <c r="O27">
-        <v>16955.825883125</v>
+        <v>33911.65176625</v>
       </c>
       <c r="P27">
-        <v>4367.00226346186</v>
+        <v>2941.12402678933</v>
       </c>
       <c r="Q27">
         <v>5821.99045239636</v>
@@ -2951,10 +2951,10 @@
         <v>1746.59713571891</v>
       </c>
       <c r="U27">
-        <v>4541.66197703375</v>
+        <v>3115.78374036122</v>
       </c>
       <c r="V27">
-        <v>370.899358685161</v>
+        <v>1796.77759535769</v>
       </c>
       <c r="W27">
         <v>-909.429116677453</v>
@@ -2975,7 +2975,7 @@
         <v>-4434.04497</v>
       </c>
       <c r="AC27">
-        <v>-4063.14561131484</v>
+        <v>-2637.26737464231</v>
       </c>
     </row>
     <row r="28">
@@ -3119,10 +3119,10 @@
         <v>1445.268</v>
       </c>
       <c r="O29">
-        <v>69644.7824583333</v>
+        <v>139289.564916667</v>
       </c>
       <c r="P29">
-        <v>17937.1340995274</v>
+        <v>12080.446239577</v>
       </c>
       <c r="Q29">
         <v>23913.3889039977</v>
@@ -3137,10 +3137,10 @@
         <v>7174.01667119931</v>
       </c>
       <c r="U29">
-        <v>18654.5357666473</v>
+        <v>12797.847906697</v>
       </c>
       <c r="V29">
-        <v>-4560.75109544799</v>
+        <v>1295.93676450234</v>
       </c>
       <c r="W29">
         <v>-9819.60423279838</v>
@@ -3161,7 +3161,7 @@
         <v>-6126.46497</v>
       </c>
       <c r="AC29">
-        <v>-10687.216065448</v>
+        <v>-4830.52820549765</v>
       </c>
     </row>
     <row r="30">
@@ -3305,10 +3305,10 @@
         <v>908.325</v>
       </c>
       <c r="O31">
-        <v>50867.477649375</v>
+        <v>101734.95529875</v>
       </c>
       <c r="P31">
-        <v>13101.0067903856</v>
+        <v>8823.372080368</v>
       </c>
       <c r="Q31">
         <v>17465.9713571891</v>
@@ -3323,10 +3323,10 @@
         <v>5239.79140715672</v>
       </c>
       <c r="U31">
-        <v>13624.9859311012</v>
+        <v>9347.35122108367</v>
       </c>
       <c r="V31">
-        <v>-6100.61952394451</v>
+        <v>-1822.98481392694</v>
       </c>
       <c r="W31">
         <v>-9941.60495003236</v>
@@ -3347,7 +3347,7 @@
         <v>15784.66503</v>
       </c>
       <c r="AC31">
-        <v>9684.04550605549</v>
+        <v>13961.6802160731</v>
       </c>
     </row>
     <row r="32">
@@ -3398,10 +3398,10 @@
         <v>605.5698</v>
       </c>
       <c r="O32">
-        <v>27857.9129833333</v>
+        <v>55715.8259666667</v>
       </c>
       <c r="P32">
-        <v>7174.85363981095</v>
+        <v>4832.17849583081</v>
       </c>
       <c r="Q32">
         <v>9565.35556159908</v>
@@ -3416,10 +3416,10 @@
         <v>2869.60666847972</v>
       </c>
       <c r="U32">
-        <v>7461.81430665892</v>
+        <v>5119.13916267878</v>
       </c>
       <c r="V32">
-        <v>-1234.0478381792</v>
+        <v>1108.62730580094</v>
       </c>
       <c r="W32">
         <v>-3337.58909311935</v>
@@ -3440,7 +3440,7 @@
         <v>4409.50503</v>
       </c>
       <c r="AC32">
-        <v>3175.4571918208</v>
+        <v>5518.13233580094</v>
       </c>
     </row>
     <row r="33">
@@ -3491,10 +3491,10 @@
         <v>2617.2102</v>
       </c>
       <c r="O33">
-        <v>187237.31899375</v>
+        <v>374474.6379875</v>
       </c>
       <c r="P33">
-        <v>48223.2951368063</v>
+        <v>32477.8150825552</v>
       </c>
       <c r="Q33">
         <v>64290.2263226707</v>
@@ -3509,10 +3509,10 @@
         <v>19287.0678968012</v>
       </c>
       <c r="U33">
-        <v>50152.0019264864</v>
+        <v>34406.5218722353</v>
       </c>
       <c r="V33">
-        <v>-20316.7838296852</v>
+        <v>-4571.30377543409</v>
       </c>
       <c r="W33">
         <v>-34455.0082258695</v>
@@ -3533,7 +3533,7 @@
         <v>216.600030000001</v>
       </c>
       <c r="AC33">
-        <v>-20100.1837996852</v>
+        <v>-4354.70374543409</v>
       </c>
     </row>
     <row r="34">
@@ -3584,10 +3584,10 @@
         <v>261.7956</v>
       </c>
       <c r="O34">
-        <v>12803.9253904167</v>
+        <v>25607.8507808333</v>
       </c>
       <c r="P34">
-        <v>3297.6731152208</v>
+        <v>2220.94357789147</v>
       </c>
       <c r="Q34">
         <v>4396.38457542727</v>
@@ -3602,10 +3602,10 @@
         <v>1318.91537262818</v>
       </c>
       <c r="U34">
-        <v>3429.56465248362</v>
+        <v>2352.83511515429</v>
       </c>
       <c r="V34">
-        <v>-63.883679855438</v>
+        <v>1012.84585747389</v>
       </c>
       <c r="W34">
         <v>-1030.70360279909</v>
@@ -3626,7 +3626,7 @@
         <v>-12700.73997</v>
       </c>
       <c r="AC34">
-        <v>-12764.6236498554</v>
+        <v>-11687.8941125261</v>
       </c>
     </row>
     <row r="35">
@@ -3677,10 +3677,10 @@
         <v>3763.9866</v>
       </c>
       <c r="O35">
-        <v>203469.9105975</v>
+        <v>406939.821195</v>
       </c>
       <c r="P35">
-        <v>52404.0271615423</v>
+        <v>35293.488321472</v>
       </c>
       <c r="Q35">
         <v>69863.8854287563</v>
@@ -3695,10 +3695,10 @@
         <v>20959.1656286269</v>
       </c>
       <c r="U35">
-        <v>54499.943724405</v>
+        <v>37389.4048843347</v>
       </c>
       <c r="V35">
-        <v>-24073.7814957781</v>
+        <v>-6963.24265570777</v>
       </c>
       <c r="W35">
         <v>-39437.7232001294</v>
@@ -3719,7 +3719,7 @@
         <v>1253.53503</v>
       </c>
       <c r="AC35">
-        <v>-22820.2464657781</v>
+        <v>-5709.70762570777</v>
       </c>
     </row>
     <row r="36">
@@ -3770,10 +3770,10 @@
         <v>3747.7572</v>
       </c>
       <c r="O36">
-        <v>208130.75373125</v>
+        <v>416261.5074625</v>
       </c>
       <c r="P36">
-        <v>53604.4353666645</v>
+        <v>36101.9489544283</v>
       </c>
       <c r="Q36">
         <v>71464.24299387</v>
@@ -3788,10 +3788,10 @@
         <v>21439.272898161</v>
       </c>
       <c r="U36">
-        <v>55748.3626564806</v>
+        <v>38245.8762442444</v>
       </c>
       <c r="V36">
-        <v>-19204.4925583196</v>
+        <v>-1702.00614608338</v>
       </c>
       <c r="W36">
         <v>-34920.372895709</v>
@@ -3812,7 +3812,7 @@
         <v>-9816.46497</v>
       </c>
       <c r="AC36">
-        <v>-29020.9575283196</v>
+        <v>-11518.4711160834</v>
       </c>
     </row>
     <row r="37">
@@ -3863,10 +3863,10 @@
         <v>3330.1092</v>
       </c>
       <c r="O37">
-        <v>186514.084714375</v>
+        <v>373028.16942875</v>
       </c>
       <c r="P37">
-        <v>48037.0248980804</v>
+        <v>32352.3642946827</v>
       </c>
       <c r="Q37">
         <v>64041.89497636</v>
@@ -3881,10 +3881,10 @@
         <v>19212.568492908</v>
       </c>
       <c r="U37">
-        <v>49958.2817473712</v>
+        <v>34273.6211439735</v>
       </c>
       <c r="V37">
-        <v>-22369.9840544632</v>
+        <v>-6685.32345106547</v>
       </c>
       <c r="W37">
         <v>-36453.597283452</v>
@@ -3905,7 +3905,7 @@
         <v>-9048.88497</v>
       </c>
       <c r="AC37">
-        <v>-31418.8690244632</v>
+        <v>-15734.2084210655</v>
       </c>
     </row>
     <row r="38">
@@ -3956,10 +3956,10 @@
         <v>4541.0442</v>
       </c>
       <c r="O38">
-        <v>231635.867810937</v>
+        <v>463271.735621875</v>
       </c>
       <c r="P38">
-        <v>59658.218125255</v>
+        <v>40179.0995602855</v>
       </c>
       <c r="Q38">
         <v>79535.0117489692</v>
@@ -3974,10 +3974,10 @@
         <v>23860.5035246908</v>
       </c>
       <c r="U38">
-        <v>62044.268477724</v>
+        <v>42565.1499127546</v>
       </c>
       <c r="V38">
-        <v>-16441.7957530333</v>
+        <v>3037.32281193616</v>
       </c>
       <c r="W38">
         <v>-33932.5390242785</v>
@@ -3998,7 +3998,7 @@
         <v>25472.08503</v>
       </c>
       <c r="AC38">
-        <v>9030.28927696673</v>
+        <v>28509.4078419362</v>
       </c>
     </row>
     <row r="39">
@@ -4049,10 +4049,10 @@
         <v>3450.3216</v>
       </c>
       <c r="O39">
-        <v>169866.303061354</v>
+        <v>339732.606122708</v>
       </c>
       <c r="P39">
-        <v>43749.3599585203</v>
+        <v>29464.6730108761</v>
       </c>
       <c r="Q39">
         <v>58325.6752825774</v>
@@ -4067,10 +4067,10 @@
         <v>17497.7025847732</v>
       </c>
       <c r="U39">
-        <v>45499.1302169976</v>
+        <v>31214.4432693534</v>
       </c>
       <c r="V39">
-        <v>-3640.06603222439</v>
+        <v>10644.6209154199</v>
       </c>
       <c r="W39">
         <v>-16466.6110978042</v>
@@ -4091,7 +4091,7 @@
         <v>22666.44003</v>
       </c>
       <c r="AC39">
-        <v>19026.3739977756</v>
+        <v>33311.0609454199</v>
       </c>
     </row>
     <row r="40">
@@ -4142,10 +4142,10 @@
         <v>3778.1832</v>
       </c>
       <c r="O40">
-        <v>179254.955465833</v>
+        <v>358509.910931667</v>
       </c>
       <c r="P40">
-        <v>46167.4236130912</v>
+        <v>31093.2100904806</v>
       </c>
       <c r="Q40">
         <v>61549.3840559817</v>
@@ -4160,10 +4160,10 @@
         <v>18464.8152167945</v>
       </c>
       <c r="U40">
-        <v>48013.9051347707</v>
+        <v>32939.69161216</v>
       </c>
       <c r="V40">
-        <v>-10.5667179761513</v>
+        <v>15063.6468046345</v>
       </c>
       <c r="W40">
         <v>-13546.0456391872</v>
@@ -4184,7 +4184,7 @@
         <v>-5780.81997</v>
       </c>
       <c r="AC40">
-        <v>-5791.38668797615</v>
+        <v>9282.82683463449</v>
       </c>
     </row>
     <row r="41">
@@ -4235,10 +4235,10 @@
         <v>3404.4384</v>
       </c>
       <c r="O41">
-        <v>153218.521408333</v>
+        <v>306437.042816667</v>
       </c>
       <c r="P41">
-        <v>39461.6950189602</v>
+        <v>26576.9817270695</v>
       </c>
       <c r="Q41">
         <v>52609.4555887949</v>
@@ -4253,10 +4253,10 @@
         <v>15782.8366766385</v>
       </c>
       <c r="U41">
-        <v>41039.9786866241</v>
+        <v>28155.2653947333</v>
       </c>
       <c r="V41">
-        <v>9096.73639001441</v>
+        <v>21981.4496819052</v>
       </c>
       <c r="W41">
         <v>-2472.74051215644</v>
@@ -4277,7 +4277,7 @@
         <v>-10970.17497</v>
       </c>
       <c r="AC41">
-        <v>-1873.43857998559</v>
+        <v>11011.2747119052</v>
       </c>
     </row>
     <row r="42">
@@ -4328,10 +4328,10 @@
         <v>523.5714</v>
       </c>
       <c r="O42">
-        <v>37447.46379875</v>
+        <v>74894.9275975</v>
       </c>
       <c r="P42">
-        <v>9644.65902736125</v>
+        <v>6495.56301651104</v>
       </c>
       <c r="Q42">
         <v>12858.0452645341</v>
@@ -4346,10 +4346,10 @@
         <v>3857.41357936024</v>
       </c>
       <c r="U42">
-        <v>10030.4003852973</v>
+        <v>6881.30437444706</v>
       </c>
       <c r="V42">
-        <v>-1682.96540593703</v>
+        <v>1466.13060491318</v>
       </c>
       <c r="W42">
         <v>-4510.6102851739</v>
@@ -4370,7 +4370,7 @@
         <v>18437.73003</v>
       </c>
       <c r="AC42">
-        <v>16754.764624063</v>
+        <v>19903.8606349132</v>
       </c>
     </row>
     <row r="43">
@@ -4421,10 +4421,10 @@
         <v>2968.5678</v>
       </c>
       <c r="O43">
-        <v>140843.179294583</v>
+        <v>281686.358589167</v>
       </c>
       <c r="P43">
-        <v>36274.4042674288</v>
+        <v>24430.3793568062</v>
       </c>
       <c r="Q43">
         <v>48360.2303297</v>
@@ -4439,10 +4439,10 @@
         <v>14508.06909891</v>
       </c>
       <c r="U43">
-        <v>37725.2111773198</v>
+        <v>25881.1862666972</v>
       </c>
       <c r="V43">
-        <v>-6755.08427840982</v>
+        <v>5088.94063221281</v>
       </c>
       <c r="W43">
         <v>-17390.10343079</v>
@@ -4463,7 +4463,7 @@
         <v>1756.44003</v>
       </c>
       <c r="AC43">
-        <v>-4998.64424840982</v>
+        <v>6845.38066221281</v>
       </c>
     </row>
     <row r="44">
@@ -4514,10 +4514,10 @@
         <v>4015.4532</v>
       </c>
       <c r="O44">
-        <v>280855.978490625</v>
+        <v>561711.95698125</v>
       </c>
       <c r="P44">
-        <v>72334.9427052094</v>
+        <v>48716.7226238328</v>
       </c>
       <c r="Q44">
         <v>96435.3394840061</v>
@@ -4532,10 +4532,10 @@
         <v>28930.6018452018</v>
       </c>
       <c r="U44">
-        <v>75228.0028897296</v>
+        <v>51609.782808353</v>
       </c>
       <c r="V44">
-        <v>-5777.82784452778</v>
+        <v>17840.3922368489</v>
       </c>
       <c r="W44">
         <v>-26985.1644388043</v>
@@ -4556,7 +4556,7 @@
         <v>-13277.59497</v>
       </c>
       <c r="AC44">
-        <v>-19055.4228145278</v>
+        <v>4562.79726684887</v>
       </c>
     </row>
     <row r="45">
@@ -4607,10 +4607,10 @@
         <v>1570.3116</v>
       </c>
       <c r="O45">
-        <v>76823.5523425</v>
+        <v>153647.104685</v>
       </c>
       <c r="P45">
-        <v>19786.0386913248</v>
+        <v>13325.6614673488</v>
       </c>
       <c r="Q45">
         <v>26378.3074525636</v>
@@ -4625,10 +4625,10 @@
         <v>7913.49223576908</v>
       </c>
       <c r="U45">
-        <v>20577.3879149017</v>
+        <v>14117.0106909257</v>
       </c>
       <c r="V45">
-        <v>-3955.80407913263</v>
+        <v>2504.57314484335</v>
       </c>
       <c r="W45">
         <v>-9756.72361679452</v>
@@ -4649,7 +4649,7 @@
         <v>12018.37503</v>
       </c>
       <c r="AC45">
-        <v>8062.57095086737</v>
+        <v>14522.9481748434</v>
       </c>
     </row>
     <row r="46">
@@ -4700,10 +4700,10 @@
         <v>3402.3858</v>
       </c>
       <c r="O46">
-        <v>243408.514691875</v>
+        <v>486817.02938375</v>
       </c>
       <c r="P46">
-        <v>62690.2836778482</v>
+        <v>42221.1596073217</v>
       </c>
       <c r="Q46">
         <v>83577.2942194719</v>
@@ -4718,10 +4718,10 @@
         <v>25073.1882658416</v>
       </c>
       <c r="U46">
-        <v>65197.6025044323</v>
+        <v>44728.4784339059</v>
       </c>
       <c r="V46">
-        <v>-8368.81343859075</v>
+        <v>12100.3106319357</v>
       </c>
       <c r="W46">
         <v>-26748.5051536304</v>
@@ -4742,7 +4742,7 @@
         <v>18437.73003</v>
       </c>
       <c r="AC46">
-        <v>10068.9165914093</v>
+        <v>30538.0406619357</v>
       </c>
     </row>
     <row r="47">
@@ -4793,10 +4793,10 @@
         <v>1515.3864</v>
       </c>
       <c r="O47">
-        <v>112342.39139625</v>
+        <v>224684.7827925</v>
       </c>
       <c r="P47">
-        <v>28933.9770820838</v>
+        <v>19486.6890495331</v>
       </c>
       <c r="Q47">
         <v>38574.1357936024</v>
@@ -4811,10 +4811,10 @@
         <v>11572.2407380807</v>
       </c>
       <c r="U47">
-        <v>30091.2011558918</v>
+        <v>20643.9131233412</v>
       </c>
       <c r="V47">
-        <v>-10115.4540178111</v>
+        <v>-668.16598526045</v>
       </c>
       <c r="W47">
         <v>-18598.3886555217</v>
@@ -4835,7 +4835,7 @@
         <v>-13277.59497</v>
       </c>
       <c r="AC47">
-        <v>-23393.0489878111</v>
+        <v>-13945.7609552604</v>
       </c>
     </row>
     <row r="48">
@@ -4886,10 +4886,10 @@
         <v>3747.7572</v>
       </c>
       <c r="O48">
-        <v>262132.24659125</v>
+        <v>524264.4931825</v>
       </c>
       <c r="P48">
-        <v>67512.6131915288</v>
+        <v>45468.9411155772</v>
       </c>
       <c r="Q48">
         <v>90006.316851739</v>
@@ -4904,10 +4904,10 @@
         <v>27001.8950555217</v>
       </c>
       <c r="U48">
-        <v>70212.8026970809</v>
+        <v>48169.1306211294</v>
       </c>
       <c r="V48">
-        <v>-25267.1004415592</v>
+        <v>-3223.4283656077</v>
       </c>
       <c r="W48">
         <v>-45060.6145962173</v>
@@ -4928,7 +4928,7 @@
         <v>-6355.33497</v>
       </c>
       <c r="AC48">
-        <v>-31622.4354115592</v>
+        <v>-9578.7633356077</v>
       </c>
     </row>
     <row r="49">
@@ -5165,10 +5165,10 @@
         <v>867.1938</v>
       </c>
       <c r="O51">
-        <v>50867.477649375</v>
+        <v>101734.95529875</v>
       </c>
       <c r="P51">
-        <v>13101.0067903856</v>
+        <v>8823.372080368</v>
       </c>
       <c r="Q51">
         <v>17465.9713571891</v>
@@ -5183,10 +5183,10 @@
         <v>5239.79140715672</v>
       </c>
       <c r="U51">
-        <v>13624.9859311012</v>
+        <v>9347.35122108367</v>
       </c>
       <c r="V51">
-        <v>-6204.07072394451</v>
+        <v>-1926.43601392694</v>
       </c>
       <c r="W51">
         <v>-10045.0561500324</v>
@@ -5207,7 +5207,7 @@
         <v>-2550.89997</v>
       </c>
       <c r="AC51">
-        <v>-8754.97069394451</v>
+        <v>-4477.33598392694</v>
       </c>
     </row>
     <row r="52">
@@ -5258,10 +5258,10 @@
         <v>2785.4574</v>
       </c>
       <c r="O52">
-        <v>125360.608425</v>
+        <v>250721.21685</v>
       </c>
       <c r="P52">
-        <v>32286.8413791493</v>
+        <v>21744.8032312387</v>
       </c>
       <c r="Q52">
         <v>43044.1000271958</v>
@@ -5276,10 +5276,10 @@
         <v>12913.2300081588</v>
       </c>
       <c r="U52">
-        <v>33578.1643799651</v>
+        <v>23036.1262320545</v>
       </c>
       <c r="V52">
-        <v>-11548.8919718064</v>
+        <v>-1006.85382389578</v>
       </c>
       <c r="W52">
         <v>-21014.8276190371</v>
@@ -5300,7 +5300,7 @@
         <v>4600.23003</v>
       </c>
       <c r="AC52">
-        <v>-6948.66194180638</v>
+        <v>3593.37620610422</v>
       </c>
     </row>
     <row r="53">
@@ -5351,10 +5351,10 @@
         <v>4077.6516</v>
       </c>
       <c r="O53">
-        <v>181076.434391667</v>
+        <v>362152.868783333</v>
       </c>
       <c r="P53">
-        <v>46636.5486587712</v>
+        <v>31409.1602229003</v>
       </c>
       <c r="Q53">
         <v>62174.811150394</v>
@@ -5369,10 +5369,10 @@
         <v>18652.4433451182</v>
       </c>
       <c r="U53">
-        <v>48501.792993283</v>
+        <v>33274.4045574121</v>
       </c>
       <c r="V53">
-        <v>-19593.4380481648</v>
+        <v>-4366.04961229392</v>
       </c>
       <c r="W53">
         <v>-33266.4562052758</v>
@@ -5393,7 +5393,7 @@
         <v>20552.08503</v>
       </c>
       <c r="AC53">
-        <v>958.646981835216</v>
+        <v>16186.0354177061</v>
       </c>
     </row>
     <row r="54">
@@ -5444,10 +5444,10 @@
         <v>2409.2574</v>
       </c>
       <c r="O54">
-        <v>115235.32851375</v>
+        <v>230470.6570275</v>
       </c>
       <c r="P54">
-        <v>29679.0580369872</v>
+        <v>19988.4922010232</v>
       </c>
       <c r="Q54">
         <v>39567.4611788454</v>
@@ -5462,10 +5462,10 @@
         <v>11870.2383536536</v>
       </c>
       <c r="U54">
-        <v>30866.0818723526</v>
+        <v>21175.5160363886</v>
       </c>
       <c r="V54">
-        <v>-1985.02611869895</v>
+        <v>7705.53971726503</v>
       </c>
       <c r="W54">
         <v>-10686.4054251918</v>
@@ -5486,7 +5486,7 @@
         <v>1756.44003</v>
       </c>
       <c r="AC54">
-        <v>-228.586088698947</v>
+        <v>9461.97974726504</v>
       </c>
     </row>
     <row r="55">
@@ -5537,10 +5537,10 @@
         <v>1070.85</v>
       </c>
       <c r="O55">
-        <v>51215.7015616667</v>
+        <v>102431.403123333</v>
       </c>
       <c r="P55">
-        <v>13190.6924608832</v>
+        <v>8883.77431156588</v>
       </c>
       <c r="Q55">
         <v>17585.5383017091</v>
@@ -5555,10 +5555,10 @@
         <v>5275.66149051272</v>
       </c>
       <c r="U55">
-        <v>13718.2586099345</v>
+        <v>9411.34046061715</v>
       </c>
       <c r="V55">
-        <v>-4937.99711942175</v>
+        <v>-631.07897010443</v>
       </c>
       <c r="W55">
         <v>-8805.27681119635</v>
@@ -5579,7 +5579,7 @@
         <v>29009.50503</v>
       </c>
       <c r="AC55">
-        <v>24071.5079105782</v>
+        <v>28378.4260598956</v>
       </c>
     </row>
     <row r="56">
@@ -5630,10 +5630,10 @@
         <v>1856.9892</v>
       </c>
       <c r="O56">
-        <v>92654.347124375</v>
+        <v>185308.69424875</v>
       </c>
       <c r="P56">
-        <v>23863.287250102</v>
+        <v>16071.6398241142</v>
       </c>
       <c r="Q56">
         <v>31814.0046995877</v>
@@ -5648,10 +5648,10 @@
         <v>9544.20140987631</v>
       </c>
       <c r="U56">
-        <v>24817.7073910896</v>
+        <v>17026.0599651018</v>
       </c>
       <c r="V56">
-        <v>-4975.65678121331</v>
+        <v>2815.99064477447</v>
       </c>
       <c r="W56">
         <v>-11971.9540897114</v>
@@ -5672,7 +5672,7 @@
         <v>-13277.59497</v>
       </c>
       <c r="AC56">
-        <v>-18253.2517512133</v>
+        <v>-10461.6043252255</v>
       </c>
     </row>
     <row r="57">
@@ -5723,10 +5723,10 @@
         <v>4332.9066</v>
       </c>
       <c r="O57">
-        <v>237381.56236375</v>
+        <v>474763.1247275</v>
       </c>
       <c r="P57">
-        <v>61138.031688466</v>
+        <v>41175.7363750506</v>
       </c>
       <c r="Q57">
         <v>81507.8663335491</v>
@@ -5741,10 +5741,10 @@
         <v>24452.3599000647</v>
       </c>
       <c r="U57">
-        <v>63583.2676784724</v>
+        <v>43620.9723650571</v>
       </c>
       <c r="V57">
-        <v>1309.55382159227</v>
+        <v>21271.8491350076</v>
       </c>
       <c r="W57">
         <v>-16615.0448334843</v>
@@ -5765,7 +5765,7 @@
         <v>872.085030000002</v>
       </c>
       <c r="AC57">
-        <v>2181.63885159227</v>
+        <v>22143.9341650076</v>
       </c>
     </row>
     <row r="58">
@@ -5816,10 +5816,10 @@
         <v>2724.645</v>
       </c>
       <c r="O58">
-        <v>152602.432948125</v>
+        <v>305204.86589625</v>
       </c>
       <c r="P58">
-        <v>39303.0203711567</v>
+        <v>26470.116241104</v>
       </c>
       <c r="Q58">
         <v>52397.9140715673</v>
@@ -5834,10 +5834,10 @@
         <v>15719.3742214702</v>
       </c>
       <c r="U58">
-        <v>40874.9577933037</v>
+        <v>28042.053663251</v>
       </c>
       <c r="V58">
-        <v>-1789.68857183355</v>
+        <v>11043.2155582192</v>
       </c>
       <c r="W58">
         <v>-13312.6448500971</v>
@@ -5858,7 +5858,7 @@
         <v>3408.37503</v>
       </c>
       <c r="AC58">
-        <v>1618.68645816645</v>
+        <v>14451.5905882192</v>
       </c>
     </row>
     <row r="59">
@@ -5909,10 +5909,10 @@
         <v>809.8002</v>
       </c>
       <c r="O59">
-        <v>56171.195698125</v>
+        <v>112342.39139625</v>
       </c>
       <c r="P59">
-        <v>14466.9885410419</v>
+        <v>9743.34452476655</v>
       </c>
       <c r="Q59">
         <v>19287.0678968012</v>
@@ -5927,10 +5927,10 @@
         <v>5786.12036904036</v>
       </c>
       <c r="U59">
-        <v>15045.6005779459</v>
+        <v>10321.9565616706</v>
       </c>
       <c r="V59">
-        <v>-4155.28500890555</v>
+        <v>568.359007369776</v>
       </c>
       <c r="W59">
         <v>-8396.75232776085</v>
@@ -5951,7 +5951,7 @@
         <v>17438.94003</v>
       </c>
       <c r="AC59">
-        <v>13283.6550210944</v>
+        <v>18007.2990373698</v>
       </c>
     </row>
     <row r="60">
@@ -6002,10 +6002,10 @@
         <v>4332.9066</v>
       </c>
       <c r="O60">
-        <v>237381.56236375</v>
+        <v>474763.1247275</v>
       </c>
       <c r="P60">
-        <v>61138.031688466</v>
+        <v>41175.7363750506</v>
       </c>
       <c r="Q60">
         <v>81507.8663335491</v>
@@ -6020,10 +6020,10 @@
         <v>24452.3599000647</v>
       </c>
       <c r="U60">
-        <v>63583.2676784724</v>
+        <v>43620.9723650571</v>
       </c>
       <c r="V60">
-        <v>-21667.9811784077</v>
+        <v>-1705.6858649924</v>
       </c>
       <c r="W60">
         <v>-39592.5798334843</v>
@@ -6044,7 +6044,7 @@
         <v>-13277.59497</v>
       </c>
       <c r="AC60">
-        <v>-34945.5761484077</v>
+        <v>-14983.2808349924</v>
       </c>
     </row>
     <row r="61">
@@ -6095,10 +6095,10 @@
         <v>2093.7576</v>
       </c>
       <c r="O61">
-        <v>149789.855195</v>
+        <v>299579.71039</v>
       </c>
       <c r="P61">
-        <v>38578.636109445</v>
+        <v>25982.2520660441</v>
       </c>
       <c r="Q61">
         <v>51432.1810581366</v>
@@ -6113,10 +6113,10 @@
         <v>15429.654317441</v>
       </c>
       <c r="U61">
-        <v>40121.6015411891</v>
+        <v>27525.2174977882</v>
       </c>
       <c r="V61">
-        <v>-5150.20962374814</v>
+        <v>7446.17441965273</v>
       </c>
       <c r="W61">
         <v>-16460.7891406956</v>
@@ -6137,7 +6137,7 @@
         <v>216.600030000001</v>
       </c>
       <c r="AC61">
-        <v>-4933.60959374814</v>
+        <v>7662.77444965273</v>
       </c>
     </row>
     <row r="62">
@@ -6188,10 +6188,10 @@
         <v>3140.6628</v>
       </c>
       <c r="O62">
-        <v>224684.7827925</v>
+        <v>449369.565585</v>
       </c>
       <c r="P62">
-        <v>57867.9541641675</v>
+        <v>38973.3780990662</v>
       </c>
       <c r="Q62">
         <v>77148.2715872049</v>
@@ -6206,10 +6206,10 @@
         <v>23144.4814761615</v>
       </c>
       <c r="U62">
-        <v>60182.4023117837</v>
+        <v>41287.8262466824</v>
       </c>
       <c r="V62">
-        <v>-5345.77803562221</v>
+        <v>13548.7980294791</v>
       </c>
       <c r="W62">
         <v>-22311.6473110434</v>
@@ -6230,7 +6230,7 @@
         <v>-9663.88497</v>
       </c>
       <c r="AC62">
-        <v>-15009.6630056222</v>
+        <v>3884.9130594791</v>
       </c>
     </row>
     <row r="63">
@@ -6281,10 +6281,10 @@
         <v>3480.0546</v>
       </c>
       <c r="O63">
-        <v>166451.030075417</v>
+        <v>332902.060150833</v>
       </c>
       <c r="P63">
-        <v>42869.7504978704</v>
+        <v>28872.2665125891</v>
       </c>
       <c r="Q63">
         <v>57152.9994805545</v>
@@ -6299,10 +6299,10 @@
         <v>17145.8998441663</v>
       </c>
       <c r="U63">
-        <v>44584.340482287</v>
+        <v>30586.8564970057</v>
       </c>
       <c r="V63">
-        <v>-16049.1710381207</v>
+        <v>-2051.6870528394</v>
       </c>
       <c r="W63">
         <v>-28617.8300363881</v>
@@ -6323,7 +6323,7 @@
         <v>-9663.88497</v>
       </c>
       <c r="AC63">
-        <v>-25713.0560081207</v>
+        <v>-11715.5720228394</v>
       </c>
     </row>
     <row r="64">
@@ -6374,10 +6374,10 @@
         <v>809.8002</v>
       </c>
       <c r="O64">
-        <v>56171.195698125</v>
+        <v>112342.39139625</v>
       </c>
       <c r="P64">
-        <v>14466.9885410419</v>
+        <v>9743.34452476655</v>
       </c>
       <c r="Q64">
         <v>19287.0678968012</v>
@@ -6392,10 +6392,10 @@
         <v>5786.12036904036</v>
       </c>
       <c r="U64">
-        <v>15045.6005779459</v>
+        <v>10321.9565616706</v>
       </c>
       <c r="V64">
-        <v>-5995.74000890555</v>
+        <v>-1272.09599263023</v>
       </c>
       <c r="W64">
         <v>-10237.2073277609</v>
@@ -6416,7 +6416,7 @@
         <v>22859.50503</v>
       </c>
       <c r="AC64">
-        <v>16863.7650210944</v>
+        <v>21587.4090373698</v>
       </c>
     </row>
     <row r="65">
@@ -6467,10 +6467,10 @@
         <v>1856.9892</v>
       </c>
       <c r="O65">
-        <v>92654.347124375</v>
+        <v>185308.69424875</v>
       </c>
       <c r="P65">
-        <v>23863.287250102</v>
+        <v>16071.6398241142</v>
       </c>
       <c r="Q65">
         <v>31814.0046995877</v>
@@ -6485,10 +6485,10 @@
         <v>9544.20140987631</v>
       </c>
       <c r="U65">
-        <v>24817.7073910896</v>
+        <v>17026.0599651018</v>
       </c>
       <c r="V65">
-        <v>-6382.46678121331</v>
+        <v>1409.18064477446</v>
       </c>
       <c r="W65">
         <v>-13378.7640897114</v>
@@ -6509,7 +6509,7 @@
         <v>-2665.33497</v>
       </c>
       <c r="AC65">
-        <v>-9047.80175121331</v>
+        <v>-1256.15432522553</v>
       </c>
     </row>
     <row r="66">
@@ -6560,10 +6560,10 @@
         <v>4023.426</v>
       </c>
       <c r="O66">
-        <v>181076.434391667</v>
+        <v>362152.868783333</v>
       </c>
       <c r="P66">
-        <v>46636.5486587712</v>
+        <v>31409.1602229003</v>
       </c>
       <c r="Q66">
         <v>62174.811150394</v>
@@ -6578,10 +6578,10 @@
         <v>18652.4433451182</v>
       </c>
       <c r="U66">
-        <v>48501.792993283</v>
+        <v>33274.4045574121</v>
       </c>
       <c r="V66">
-        <v>-7537.62364816479</v>
+        <v>7689.76478770608</v>
       </c>
       <c r="W66">
         <v>-21210.6418052758</v>
@@ -6602,7 +6602,7 @@
         <v>-10970.17497</v>
       </c>
       <c r="AC66">
-        <v>-18507.7986181648</v>
+        <v>-3280.41018229392</v>
       </c>
     </row>
     <row r="67">
@@ -6653,10 +6653,10 @@
         <v>4077.6516</v>
       </c>
       <c r="O67">
-        <v>181076.434391667</v>
+        <v>362152.868783333</v>
       </c>
       <c r="P67">
-        <v>46636.5486587712</v>
+        <v>31409.1602229003</v>
       </c>
       <c r="Q67">
         <v>62174.811150394</v>
@@ -6671,10 +6671,10 @@
         <v>18652.4433451182</v>
       </c>
       <c r="U67">
-        <v>48501.792993283</v>
+        <v>33274.4045574121</v>
       </c>
       <c r="V67">
-        <v>8208.73195183521</v>
+        <v>23436.1203877061</v>
       </c>
       <c r="W67">
         <v>-5464.2862052758</v>
@@ -6695,7 +6695,7 @@
         <v>-629.609969999998</v>
       </c>
       <c r="AC67">
-        <v>7579.12198183521</v>
+        <v>22806.5104177061</v>
       </c>
     </row>
     <row r="68">
@@ -6839,10 +6839,10 @@
         <v>2724.645</v>
       </c>
       <c r="O69">
-        <v>138981.520686562</v>
+        <v>277963.041373125</v>
       </c>
       <c r="P69">
-        <v>35794.930875153</v>
+        <v>24107.4597361713</v>
       </c>
       <c r="Q69">
         <v>47721.0070493815</v>
@@ -6857,10 +6857,10 @@
         <v>14316.3021148145</v>
       </c>
       <c r="U69">
-        <v>37226.5610866344</v>
+        <v>25539.0899476528</v>
       </c>
       <c r="V69">
-        <v>4583.88602818004</v>
+        <v>16271.3571671617</v>
       </c>
       <c r="W69">
         <v>-5910.55993456707</v>
@@ -6881,7 +6881,7 @@
         <v>-1359.04497</v>
       </c>
       <c r="AC69">
-        <v>3224.84105818005</v>
+        <v>14912.3121971617</v>
       </c>
     </row>
     <row r="70">
@@ -6932,10 +6932,10 @@
         <v>3935.5866</v>
       </c>
       <c r="O70">
-        <v>200751.085436146</v>
+        <v>401502.170872292</v>
       </c>
       <c r="P70">
-        <v>51703.7890418876</v>
+        <v>34821.8862855808</v>
       </c>
       <c r="Q70">
         <v>68930.3435157733</v>
@@ -6950,10 +6950,10 @@
         <v>20679.103054732</v>
       </c>
       <c r="U70">
-        <v>53771.6993473608</v>
+        <v>36889.796591054</v>
       </c>
       <c r="V70">
-        <v>-8286.47469262883</v>
+        <v>8595.42806367801</v>
       </c>
       <c r="W70">
         <v>-23445.1188610413</v>
@@ -6974,7 +6974,7 @@
         <v>3525.15003</v>
       </c>
       <c r="AC70">
-        <v>-4761.32466262882</v>
+        <v>12120.578093678</v>
       </c>
     </row>
     <row r="71">
@@ -7025,10 +7025,10 @@
         <v>3140.6628</v>
       </c>
       <c r="O71">
-        <v>153647.104685</v>
+        <v>307294.20937</v>
       </c>
       <c r="P71">
-        <v>39572.0773826496</v>
+        <v>26651.3229346976</v>
       </c>
       <c r="Q71">
         <v>52756.6149051272</v>
@@ -7043,10 +7043,10 @@
         <v>15826.9844715382</v>
       </c>
       <c r="U71">
-        <v>41154.7758298034</v>
+        <v>28234.0213818515</v>
       </c>
       <c r="V71">
-        <v>-10290.6785582653</v>
+        <v>2630.07588968671</v>
       </c>
       <c r="W71">
         <v>-21892.517633589</v>
@@ -7067,7 +7067,7 @@
         <v>-2705.81997</v>
       </c>
       <c r="AC71">
-        <v>-12996.4985282653</v>
+        <v>-75.7440803132868</v>
       </c>
     </row>
     <row r="72">
@@ -7118,10 +7118,10 @@
         <v>2312.2638</v>
       </c>
       <c r="O72">
-        <v>111431.651933333</v>
+        <v>222863.303866667</v>
       </c>
       <c r="P72">
-        <v>28699.4145592438</v>
+        <v>19328.7139833233</v>
       </c>
       <c r="Q72">
         <v>38261.4222463963</v>
@@ -7136,10 +7136,10 @@
         <v>11478.4266739189</v>
       </c>
       <c r="U72">
-        <v>29847.2572266357</v>
+        <v>20476.5566507151</v>
       </c>
       <c r="V72">
-        <v>-12553.1367527168</v>
+        <v>-3182.43617679625</v>
       </c>
       <c r="W72">
         <v>-20967.3017724774</v>
@@ -7160,7 +7160,7 @@
         <v>-2665.33497</v>
       </c>
       <c r="AC72">
-        <v>-15218.4717227168</v>
+        <v>-5847.77114679624</v>
       </c>
     </row>
     <row r="73">
@@ -7304,10 +7304,10 @@
         <v>1046.9448</v>
       </c>
       <c r="O74">
-        <v>59465.9296375</v>
+        <v>118931.859275</v>
       </c>
       <c r="P74">
-        <v>15315.5529619041</v>
+        <v>10314.8425584081</v>
       </c>
       <c r="Q74">
         <v>20418.3551411057</v>
@@ -7322,10 +7322,10 @@
         <v>6125.50654233172</v>
       </c>
       <c r="U74">
-        <v>15928.1036161373</v>
+        <v>10927.3932126413</v>
       </c>
       <c r="V74">
-        <v>-3996.81227380559</v>
+        <v>1003.89812969046</v>
       </c>
       <c r="W74">
         <v>-8487.063798774</v>
@@ -7346,7 +7346,7 @@
         <v>-9048.88497</v>
       </c>
       <c r="AC74">
-        <v>-13045.6972438056</v>
+        <v>-8044.98684030954</v>
       </c>
     </row>
     <row r="75">
@@ -7397,10 +7397,10 @@
         <v>1010.328</v>
       </c>
       <c r="O75">
-        <v>74894.9275975</v>
+        <v>149789.855195</v>
       </c>
       <c r="P75">
-        <v>19289.3180547225</v>
+        <v>12991.1260330221</v>
       </c>
       <c r="Q75">
         <v>25716.0905290683</v>
@@ -7415,10 +7415,10 @@
         <v>7714.82715872049</v>
       </c>
       <c r="U75">
-        <v>20060.8007705946</v>
+        <v>13762.6087488941</v>
       </c>
       <c r="V75">
-        <v>-9039.44561187407</v>
+        <v>-2741.25359017364</v>
       </c>
       <c r="W75">
         <v>-14694.7353703478</v>
@@ -7439,7 +7439,7 @@
         <v>1253.53503</v>
       </c>
       <c r="AC75">
-        <v>-7785.91058187407</v>
+        <v>-1487.71856017363</v>
       </c>
     </row>
     <row r="76">
@@ -7490,10 +7490,10 @@
         <v>2158.9458</v>
       </c>
       <c r="O76">
-        <v>149789.855195</v>
+        <v>299579.71039</v>
       </c>
       <c r="P76">
-        <v>38578.636109445</v>
+        <v>25982.2520660441</v>
       </c>
       <c r="Q76">
         <v>51432.1810581366</v>
@@ -7508,10 +7508,10 @@
         <v>15429.654317441</v>
       </c>
       <c r="U76">
-        <v>40121.6015411891</v>
+        <v>27525.2174977882</v>
       </c>
       <c r="V76">
-        <v>-12719.6114237481</v>
+        <v>-123.227380347274</v>
       </c>
       <c r="W76">
         <v>-24030.1909406956</v>
@@ -7532,7 +7532,7 @@
         <v>-3590.17497</v>
       </c>
       <c r="AC76">
-        <v>-16309.7863937481</v>
+        <v>-3713.40235034727</v>
       </c>
     </row>
     <row r="77">
@@ -7583,10 +7583,10 @@
         <v>941.1138</v>
       </c>
       <c r="O77">
-        <v>50867.477649375</v>
+        <v>101734.95529875</v>
       </c>
       <c r="P77">
-        <v>13101.0067903856</v>
+        <v>8823.372080368</v>
       </c>
       <c r="Q77">
         <v>17465.9713571891</v>
@@ -7601,10 +7601,10 @@
         <v>5239.79140715672</v>
       </c>
       <c r="U77">
-        <v>13624.9859311012</v>
+        <v>9347.35122108367</v>
       </c>
       <c r="V77">
-        <v>-4592.22072394451</v>
+        <v>-314.586013926943</v>
       </c>
       <c r="W77">
         <v>-8433.20615003236</v>
@@ -7625,7 +7625,7 @@
         <v>3675.39003</v>
       </c>
       <c r="AC77">
-        <v>-916.830693944512</v>
+        <v>3360.80401607306</v>
       </c>
     </row>
     <row r="78">
@@ -7769,10 +7769,10 @@
         <v>2785.4574</v>
       </c>
       <c r="O79">
-        <v>125360.608425</v>
+        <v>250721.21685</v>
       </c>
       <c r="P79">
-        <v>32286.8413791493</v>
+        <v>21744.8032312387</v>
       </c>
       <c r="Q79">
         <v>43044.1000271958</v>
@@ -7787,10 +7787,10 @@
         <v>12913.2300081588</v>
       </c>
       <c r="U79">
-        <v>33578.1643799651</v>
+        <v>23036.1262320545</v>
       </c>
       <c r="V79">
-        <v>-13659.0869718064</v>
+        <v>-3117.04882389578</v>
       </c>
       <c r="W79">
         <v>-23125.0226190371</v>
@@ -7811,7 +7811,7 @@
         <v>20628.37503</v>
       </c>
       <c r="AC79">
-        <v>6969.28805819362</v>
+        <v>17511.3262061042</v>
       </c>
     </row>
     <row r="80">
@@ -7955,10 +7955,10 @@
         <v>2312.2638</v>
       </c>
       <c r="O81">
-        <v>123539.129499167</v>
+        <v>247078.258998333</v>
       </c>
       <c r="P81">
-        <v>31817.7163334693</v>
+        <v>21428.853098819</v>
       </c>
       <c r="Q81">
         <v>42418.6729327836</v>
@@ -7973,10 +7973,10 @@
         <v>12725.6018798351</v>
       </c>
       <c r="U81">
-        <v>33090.2765214528</v>
+        <v>22701.4132868025</v>
       </c>
       <c r="V81">
-        <v>-535.260841617739</v>
+        <v>9853.60239303262</v>
       </c>
       <c r="W81">
         <v>-9863.65725294851</v>
@@ -7997,7 +7997,7 @@
         <v>17438.94003</v>
       </c>
       <c r="AC81">
-        <v>16903.6791883823</v>
+        <v>27292.5424230326</v>
       </c>
     </row>
     <row r="82">
@@ -8048,10 +8048,10 @@
         <v>867.1938</v>
       </c>
       <c r="O82">
-        <v>46327.1735621875</v>
+        <v>92654.347124375</v>
       </c>
       <c r="P82">
-        <v>11931.643625051</v>
+        <v>8035.81991205711</v>
       </c>
       <c r="Q82">
         <v>15907.0023497938</v>
@@ -8066,10 +8066,10 @@
         <v>4772.10070493815</v>
       </c>
       <c r="U82">
-        <v>12408.8536955448</v>
+        <v>8513.02998255092</v>
       </c>
       <c r="V82">
-        <v>-199.909190606655</v>
+        <v>3695.91452238723</v>
       </c>
       <c r="W82">
         <v>-3698.05784485569</v>
@@ -8090,7 +8090,7 @@
         <v>-1359.04497</v>
       </c>
       <c r="AC82">
-        <v>-1558.95416060665</v>
+        <v>2336.86955238723</v>
       </c>
     </row>
     <row r="83">
@@ -8141,10 +8141,10 @@
         <v>2698.6938</v>
       </c>
       <c r="O83">
-        <v>148664.82409375</v>
+        <v>297329.6481875</v>
       </c>
       <c r="P83">
-        <v>38288.8824047603</v>
+        <v>25787.1063960202</v>
       </c>
       <c r="Q83">
         <v>51045.8878527643</v>
@@ -8159,10 +8159,10 @@
         <v>15313.7663558293</v>
       </c>
       <c r="U83">
-        <v>39820.2590403433</v>
+        <v>27318.4830316031</v>
       </c>
       <c r="V83">
-        <v>-13629.938884514</v>
+        <v>-1128.16287577384</v>
       </c>
       <c r="W83">
         <v>-24855.567696935</v>
@@ -8183,7 +8183,7 @@
         <v>-10893.88497</v>
       </c>
       <c r="AC83">
-        <v>-24523.823854514</v>
+        <v>-12022.0478457738</v>
       </c>
     </row>
     <row r="84">
@@ -8234,10 +8234,10 @@
         <v>1570.3116</v>
       </c>
       <c r="O84">
-        <v>76823.5523425</v>
+        <v>153647.104685</v>
       </c>
       <c r="P84">
-        <v>19786.0386913248</v>
+        <v>13325.6614673488</v>
       </c>
       <c r="Q84">
         <v>26378.3074525636</v>
@@ -8252,10 +8252,10 @@
         <v>7913.49223576908</v>
       </c>
       <c r="U84">
-        <v>20577.3879149017</v>
+        <v>14117.0106909257</v>
       </c>
       <c r="V84">
-        <v>-5145.43407913263</v>
+        <v>1314.94314484336</v>
       </c>
       <c r="W84">
         <v>-10946.3536167945</v>
@@ -8276,7 +8276,7 @@
         <v>10559.50503</v>
       </c>
       <c r="AC84">
-        <v>5414.07095086737</v>
+        <v>11874.4481748434</v>
       </c>
     </row>
     <row r="85">
@@ -8327,10 +8327,10 @@
         <v>1010.328</v>
       </c>
       <c r="O85">
-        <v>74894.9275975</v>
+        <v>149789.855195</v>
       </c>
       <c r="P85">
-        <v>19289.3180547225</v>
+        <v>12991.1260330221</v>
       </c>
       <c r="Q85">
         <v>25716.0905290683</v>
@@ -8345,10 +8345,10 @@
         <v>7714.82715872049</v>
       </c>
       <c r="U85">
-        <v>20060.8007705946</v>
+        <v>13762.6087488941</v>
       </c>
       <c r="V85">
-        <v>-7508.64561187407</v>
+        <v>-1210.45359017364</v>
       </c>
       <c r="W85">
         <v>-13163.9353703478</v>
@@ -8369,7 +8369,7 @@
         <v>24780.79503</v>
       </c>
       <c r="AC85">
-        <v>17272.1494181259</v>
+        <v>23570.3414398264</v>
       </c>
     </row>
     <row r="86">
@@ -8420,10 +8420,10 @@
         <v>627.4356</v>
       </c>
       <c r="O86">
-        <v>30884.7823747917</v>
+        <v>61769.5647495833</v>
       </c>
       <c r="P86">
-        <v>7954.42908336733</v>
+        <v>5357.21327470474</v>
       </c>
       <c r="Q86">
         <v>10604.6682331959</v>
@@ -8438,10 +8438,10 @@
         <v>3181.40046995877</v>
       </c>
       <c r="U86">
-        <v>8272.5691303632</v>
+        <v>5675.35332170062</v>
       </c>
       <c r="V86">
-        <v>-185.763060404435</v>
+        <v>2411.45274825815</v>
       </c>
       <c r="W86">
         <v>-2517.86216323713</v>
@@ -8462,7 +8462,7 @@
         <v>-2665.33497</v>
       </c>
       <c r="AC86">
-        <v>-2851.09803040443</v>
+        <v>-253.882221741842</v>
       </c>
     </row>
     <row r="87">
@@ -8513,10 +8513,10 @@
         <v>2785.4574</v>
       </c>
       <c r="O87">
-        <v>125360.608425</v>
+        <v>250721.21685</v>
       </c>
       <c r="P87">
-        <v>32286.8413791493</v>
+        <v>21744.8032312387</v>
       </c>
       <c r="Q87">
         <v>43044.1000271958</v>
@@ -8531,10 +8531,10 @@
         <v>12913.2300081588</v>
       </c>
       <c r="U87">
-        <v>33578.1643799651</v>
+        <v>23036.1262320545</v>
       </c>
       <c r="V87">
-        <v>-997.916971806382</v>
+        <v>9544.12117610422</v>
       </c>
       <c r="W87">
         <v>-10463.8526190371</v>
@@ -8555,7 +8555,7 @@
         <v>-2665.33497</v>
       </c>
       <c r="AC87">
-        <v>-3663.25194180638</v>
+        <v>6878.78620610423</v>
       </c>
     </row>
     <row r="88">
@@ -8606,10 +8606,10 @@
         <v>261.7956</v>
       </c>
       <c r="O88">
-        <v>12803.9253904167</v>
+        <v>25607.8507808333</v>
       </c>
       <c r="P88">
-        <v>3297.6731152208</v>
+        <v>2220.94357789147</v>
       </c>
       <c r="Q88">
         <v>4396.38457542727</v>
@@ -8624,10 +8624,10 @@
         <v>1318.91537262818</v>
       </c>
       <c r="U88">
-        <v>3429.56465248362</v>
+        <v>2352.83511515429</v>
       </c>
       <c r="V88">
-        <v>134.446320144562</v>
+        <v>1211.17585747389</v>
       </c>
       <c r="W88">
         <v>-832.373602799087</v>
@@ -8648,7 +8648,7 @@
         <v>-9816.46497</v>
       </c>
       <c r="AC88">
-        <v>-9682.01864985544</v>
+        <v>-8605.28911252611</v>
       </c>
     </row>
     <row r="89">
@@ -8699,10 +8699,10 @@
         <v>3238.4418</v>
       </c>
       <c r="O89">
-        <v>224684.7827925</v>
+        <v>449369.565585</v>
       </c>
       <c r="P89">
-        <v>57867.9541641675</v>
+        <v>38973.3780990662</v>
       </c>
       <c r="Q89">
         <v>77148.2715872049</v>
@@ -8717,10 +8717,10 @@
         <v>23144.4814761615</v>
       </c>
       <c r="U89">
-        <v>60182.4023117837</v>
+        <v>41287.8262466824</v>
       </c>
       <c r="V89">
-        <v>-14172.5590356222</v>
+        <v>4722.0170294791</v>
       </c>
       <c r="W89">
         <v>-31138.4283110434</v>
@@ -8741,7 +8741,7 @@
         <v>15784.66503</v>
       </c>
       <c r="AC89">
-        <v>1612.10599437779</v>
+        <v>20506.6820594791</v>
       </c>
     </row>
     <row r="90">
@@ -8792,10 +8792,10 @@
         <v>3094.9512</v>
       </c>
       <c r="O90">
-        <v>169558.25883125</v>
+        <v>339116.5176625</v>
       </c>
       <c r="P90">
-        <v>43670.0226346186</v>
+        <v>29411.2402678933</v>
       </c>
       <c r="Q90">
         <v>58219.9045239636</v>
@@ -8810,10 +8810,10 @@
         <v>17465.9713571891</v>
       </c>
       <c r="U90">
-        <v>45416.6197703375</v>
+        <v>31157.8374036122</v>
       </c>
       <c r="V90">
-        <v>-1409.09721314839</v>
+        <v>12849.6851535769</v>
       </c>
       <c r="W90">
         <v>-14212.3819667745</v>
@@ -8834,7 +8834,7 @@
         <v>-11470.73997</v>
       </c>
       <c r="AC90">
-        <v>-12879.8371831484</v>
+        <v>1378.94518357686</v>
       </c>
     </row>
     <row r="91">
@@ -8885,10 +8885,10 @@
         <v>2409.2574</v>
       </c>
       <c r="O91">
-        <v>115235.32851375</v>
+        <v>230470.6570275</v>
       </c>
       <c r="P91">
-        <v>29679.0580369872</v>
+        <v>19988.4922010232</v>
       </c>
       <c r="Q91">
         <v>39567.4611788454</v>
@@ -8903,10 +8903,10 @@
         <v>11870.2383536536</v>
       </c>
       <c r="U91">
-        <v>30866.0818723526</v>
+        <v>21175.5160363886</v>
       </c>
       <c r="V91">
-        <v>3490.55888130105</v>
+        <v>13181.124717265</v>
       </c>
       <c r="W91">
         <v>-5210.82042519179</v>
@@ -8927,7 +8927,7 @@
         <v>-13277.59497</v>
       </c>
       <c r="AC91">
-        <v>-9787.03608869894</v>
+        <v>-96.4702527349618</v>
       </c>
     </row>
     <row r="92">
@@ -8978,10 +8978,10 @@
         <v>1816.4388</v>
       </c>
       <c r="O92">
-        <v>83573.73895</v>
+        <v>167147.4779</v>
       </c>
       <c r="P92">
-        <v>21524.5609194328</v>
+        <v>14496.5354874924</v>
       </c>
       <c r="Q92">
         <v>28696.0666847972</v>
@@ -8996,10 +8996,10 @@
         <v>8608.82000543917</v>
       </c>
       <c r="U92">
-        <v>22385.4429199768</v>
+        <v>15357.4174880364</v>
       </c>
       <c r="V92">
-        <v>4552.89588546241</v>
+        <v>11580.9213174028</v>
       </c>
       <c r="W92">
         <v>-1757.72787935806</v>
@@ -9020,7 +9020,7 @@
         <v>-5201.62497</v>
       </c>
       <c r="AC92">
-        <v>-648.729084537586</v>
+        <v>6379.29634740281</v>
       </c>
     </row>
     <row r="93">
@@ -9071,10 +9071,10 @@
         <v>605.5698</v>
       </c>
       <c r="O93">
-        <v>27857.9129833333</v>
+        <v>55715.8259666667</v>
       </c>
       <c r="P93">
-        <v>7174.85363981095</v>
+        <v>4832.17849583081</v>
       </c>
       <c r="Q93">
         <v>9565.35556159908</v>
@@ -9089,10 +9089,10 @@
         <v>2869.60666847972</v>
       </c>
       <c r="U93">
-        <v>7461.81430665892</v>
+        <v>5119.13916267878</v>
       </c>
       <c r="V93">
-        <v>-2151.5778381792</v>
+        <v>191.097305800938</v>
       </c>
       <c r="W93">
         <v>-4255.11909311935</v>
@@ -9113,7 +9113,7 @@
         <v>-4820.17497</v>
       </c>
       <c r="AC93">
-        <v>-6971.7528081792</v>
+        <v>-4629.07766419906</v>
       </c>
     </row>
     <row r="94">
@@ -9164,10 +9164,10 @@
         <v>2822.9982</v>
       </c>
       <c r="O94">
-        <v>138981.520686562</v>
+        <v>277963.041373125</v>
       </c>
       <c r="P94">
-        <v>35794.930875153</v>
+        <v>24107.4597361713</v>
       </c>
       <c r="Q94">
         <v>47721.0070493815</v>
@@ -9182,10 +9182,10 @@
         <v>14316.3021148145</v>
       </c>
       <c r="U94">
-        <v>37226.5610866344</v>
+        <v>25539.0899476528</v>
       </c>
       <c r="V94">
-        <v>5576.35922818004</v>
+        <v>17263.8303671617</v>
       </c>
       <c r="W94">
         <v>-4918.08673456708</v>
@@ -9206,7 +9206,7 @@
         <v>-8662.75497</v>
       </c>
       <c r="AC94">
-        <v>-3086.39574181996</v>
+        <v>8601.0753971617</v>
       </c>
     </row>
     <row r="95">
@@ -9257,10 +9257,10 @@
         <v>313.7442</v>
       </c>
       <c r="O95">
-        <v>16955.825883125</v>
+        <v>33911.65176625</v>
       </c>
       <c r="P95">
-        <v>4367.00226346186</v>
+        <v>2941.12402678933</v>
       </c>
       <c r="Q95">
         <v>5821.99045239636</v>
@@ -9275,10 +9275,10 @@
         <v>1746.59713571891</v>
       </c>
       <c r="U95">
-        <v>4541.66197703375</v>
+        <v>3115.78374036122</v>
       </c>
       <c r="V95">
-        <v>-817.525641314839</v>
+        <v>608.352595357686</v>
       </c>
       <c r="W95">
         <v>-2097.85411667745</v>
@@ -9299,7 +9299,7 @@
         <v>-8433.88497</v>
       </c>
       <c r="AC95">
-        <v>-9251.41061131484</v>
+        <v>-7825.53237464231</v>
       </c>
     </row>
     <row r="96">
@@ -9350,10 +9350,10 @@
         <v>2509.3398</v>
       </c>
       <c r="O96">
-        <v>135646.607065</v>
+        <v>271293.21413</v>
       </c>
       <c r="P96">
-        <v>34936.0181076949</v>
+        <v>23528.9922143147</v>
       </c>
       <c r="Q96">
         <v>46575.9236191709</v>
@@ -9368,10 +9368,10 @@
         <v>13972.7770857513</v>
       </c>
       <c r="U96">
-        <v>36333.29581627</v>
+        <v>24926.2699228898</v>
       </c>
       <c r="V96">
-        <v>-841.028930518711</v>
+        <v>10565.9969628615</v>
       </c>
       <c r="W96">
         <v>-11083.6567334196</v>
@@ -9392,7 +9392,7 @@
         <v>-2894.20497</v>
       </c>
       <c r="AC96">
-        <v>-3735.23390051871</v>
+        <v>7671.79199286149</v>
       </c>
     </row>
     <row r="97">
@@ -9443,10 +9443,10 @@
         <v>2724.645</v>
       </c>
       <c r="O97">
-        <v>138981.520686562</v>
+        <v>277963.041373125</v>
       </c>
       <c r="P97">
-        <v>35794.930875153</v>
+        <v>24107.4597361713</v>
       </c>
       <c r="Q97">
         <v>47721.0070493815</v>
@@ -9461,10 +9461,10 @@
         <v>14316.3021148145</v>
       </c>
       <c r="U97">
-        <v>37226.5610866344</v>
+        <v>25539.0899476528</v>
       </c>
       <c r="V97">
-        <v>-9864.98897181996</v>
+        <v>1822.4821671617</v>
       </c>
       <c r="W97">
         <v>-20359.4349345671</v>
@@ -9485,7 +9485,7 @@
         <v>18206.52003</v>
       </c>
       <c r="AC97">
-        <v>8341.53105818004</v>
+        <v>20029.0021971617</v>
       </c>
     </row>
     <row r="98">
@@ -9536,10 +9536,10 @@
         <v>2166.4764</v>
       </c>
       <c r="O98">
-        <v>108096.738311771</v>
+        <v>216193.476623542</v>
       </c>
       <c r="P98">
-        <v>27840.5017917856</v>
+        <v>18750.2464614666</v>
       </c>
       <c r="Q98">
         <v>37116.3388161856</v>
@@ -9554,10 +9554,10 @@
         <v>11134.9016448557</v>
       </c>
       <c r="U98">
-        <v>28953.9919562712</v>
+        <v>19863.7366259522</v>
       </c>
       <c r="V98">
-        <v>-10728.8039114155</v>
+        <v>-1638.54858109646</v>
       </c>
       <c r="W98">
         <v>-18891.15077133</v>
@@ -9578,7 +9578,7 @@
         <v>-1780.97997</v>
       </c>
       <c r="AC98">
-        <v>-12509.7838814155</v>
+        <v>-3419.52855109646</v>
       </c>
     </row>
     <row r="99">
@@ -9722,10 +9722,10 @@
         <v>523.5714</v>
       </c>
       <c r="O100">
-        <v>37447.46379875</v>
+        <v>74894.9275975</v>
       </c>
       <c r="P100">
-        <v>9644.65902736125</v>
+        <v>6495.56301651104</v>
       </c>
       <c r="Q100">
         <v>12858.0452645341</v>
@@ -9740,10 +9740,10 @@
         <v>3857.41357936024</v>
       </c>
       <c r="U100">
-        <v>10030.4003852973</v>
+        <v>6881.30437444706</v>
       </c>
       <c r="V100">
-        <v>-3269.54540593703</v>
+        <v>-120.449395086818</v>
       </c>
       <c r="W100">
         <v>-6097.1902851739</v>
@@ -9764,7 +9764,7 @@
         <v>-8085.89997</v>
       </c>
       <c r="AC100">
-        <v>-11355.445375937</v>
+        <v>-8206.34936508682</v>
       </c>
     </row>
     <row r="101">
@@ -9815,10 +9815,10 @@
         <v>3212.3586</v>
       </c>
       <c r="O101">
-        <v>153647.104685</v>
+        <v>307294.20937</v>
       </c>
       <c r="P101">
-        <v>39572.0773826496</v>
+        <v>26651.3229346976</v>
       </c>
       <c r="Q101">
         <v>52756.6149051272</v>
@@ -9833,10 +9833,10 @@
         <v>15826.9844715382</v>
       </c>
       <c r="U101">
-        <v>41154.7758298034</v>
+        <v>28234.0213818515</v>
       </c>
       <c r="V101">
-        <v>-14814.6177582653</v>
+        <v>-1893.86331031329</v>
       </c>
       <c r="W101">
         <v>-26416.456833589</v>
@@ -9857,7 +9857,7 @@
         <v>1715.95503</v>
       </c>
       <c r="AC101">
-        <v>-13098.6627282653</v>
+        <v>-177.908280313288</v>
       </c>
     </row>
   </sheetData>
